--- a/Source/Train model/Dataset/Test data.xlsx
+++ b/Source/Train model/Dataset/Test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IOT_Project\Source\Train model\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C516B7-5660-4E09-B240-8FC14357E6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8040C64-B20C-422A-B575-68EBAE347D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -374,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1633"/>
+  <dimension ref="A1:G2330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1602" workbookViewId="0">
-      <selection activeCell="L1612" sqref="L1612"/>
+    <sheetView tabSelected="1" topLeftCell="A2263" workbookViewId="0">
+      <selection activeCell="K2196" sqref="K2196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37941,6 +37942,8469 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="1634" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1634">
+        <v>2024</v>
+      </c>
+      <c r="B1634">
+        <v>4</v>
+      </c>
+      <c r="C1634">
+        <v>9</v>
+      </c>
+      <c r="D1634">
+        <v>0</v>
+      </c>
+      <c r="E1634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1635">
+        <v>2024</v>
+      </c>
+      <c r="B1635">
+        <v>4</v>
+      </c>
+      <c r="C1635">
+        <v>9</v>
+      </c>
+      <c r="D1635">
+        <v>1</v>
+      </c>
+      <c r="E1635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1636">
+        <v>2024</v>
+      </c>
+      <c r="B1636">
+        <v>4</v>
+      </c>
+      <c r="C1636">
+        <v>9</v>
+      </c>
+      <c r="D1636">
+        <v>2</v>
+      </c>
+      <c r="E1636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1637">
+        <v>2024</v>
+      </c>
+      <c r="B1637">
+        <v>4</v>
+      </c>
+      <c r="C1637">
+        <v>9</v>
+      </c>
+      <c r="D1637">
+        <v>3</v>
+      </c>
+      <c r="E1637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1638">
+        <v>2024</v>
+      </c>
+      <c r="B1638">
+        <v>4</v>
+      </c>
+      <c r="C1638">
+        <v>9</v>
+      </c>
+      <c r="D1638">
+        <v>4</v>
+      </c>
+      <c r="E1638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1639">
+        <v>2024</v>
+      </c>
+      <c r="B1639">
+        <v>4</v>
+      </c>
+      <c r="C1639">
+        <v>9</v>
+      </c>
+      <c r="D1639">
+        <v>5</v>
+      </c>
+      <c r="E1639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1640">
+        <v>2024</v>
+      </c>
+      <c r="B1640">
+        <v>4</v>
+      </c>
+      <c r="C1640">
+        <v>9</v>
+      </c>
+      <c r="D1640">
+        <v>6</v>
+      </c>
+      <c r="E1640">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1641">
+        <v>2024</v>
+      </c>
+      <c r="B1641">
+        <v>4</v>
+      </c>
+      <c r="C1641">
+        <v>9</v>
+      </c>
+      <c r="D1641">
+        <v>7</v>
+      </c>
+      <c r="E1641">
+        <v>0.67020000000000002</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1642">
+        <v>2024</v>
+      </c>
+      <c r="B1642">
+        <v>4</v>
+      </c>
+      <c r="C1642">
+        <v>9</v>
+      </c>
+      <c r="D1642">
+        <v>8</v>
+      </c>
+      <c r="E1642">
+        <v>2.6118999999999999</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1643">
+        <v>2024</v>
+      </c>
+      <c r="B1643">
+        <v>4</v>
+      </c>
+      <c r="C1643">
+        <v>9</v>
+      </c>
+      <c r="D1643">
+        <v>9</v>
+      </c>
+      <c r="E1643">
+        <v>5.6279000000000003</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1644">
+        <v>2024</v>
+      </c>
+      <c r="B1644">
+        <v>4</v>
+      </c>
+      <c r="C1644">
+        <v>9</v>
+      </c>
+      <c r="D1644">
+        <v>10</v>
+      </c>
+      <c r="E1644">
+        <v>9.2844999999999995</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1645">
+        <v>2024</v>
+      </c>
+      <c r="B1645">
+        <v>4</v>
+      </c>
+      <c r="C1645">
+        <v>9</v>
+      </c>
+      <c r="D1645">
+        <v>11</v>
+      </c>
+      <c r="E1645">
+        <v>12.132899999999999</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1646">
+        <v>2024</v>
+      </c>
+      <c r="B1646">
+        <v>4</v>
+      </c>
+      <c r="C1646">
+        <v>9</v>
+      </c>
+      <c r="D1646">
+        <v>12</v>
+      </c>
+      <c r="E1646">
+        <v>13.0397</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1647">
+        <v>2024</v>
+      </c>
+      <c r="B1647">
+        <v>4</v>
+      </c>
+      <c r="C1647">
+        <v>9</v>
+      </c>
+      <c r="D1647">
+        <v>13</v>
+      </c>
+      <c r="E1647">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1648">
+        <v>2024</v>
+      </c>
+      <c r="B1648">
+        <v>4</v>
+      </c>
+      <c r="C1648">
+        <v>9</v>
+      </c>
+      <c r="D1648">
+        <v>14</v>
+      </c>
+      <c r="E1648">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1649">
+        <v>2024</v>
+      </c>
+      <c r="B1649">
+        <v>4</v>
+      </c>
+      <c r="C1649">
+        <v>9</v>
+      </c>
+      <c r="D1649">
+        <v>15</v>
+      </c>
+      <c r="E1649">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1650">
+        <v>2024</v>
+      </c>
+      <c r="B1650">
+        <v>4</v>
+      </c>
+      <c r="C1650">
+        <v>9</v>
+      </c>
+      <c r="D1650">
+        <v>16</v>
+      </c>
+      <c r="E1650">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1651">
+        <v>2024</v>
+      </c>
+      <c r="B1651">
+        <v>4</v>
+      </c>
+      <c r="C1651">
+        <v>9</v>
+      </c>
+      <c r="D1651">
+        <v>17</v>
+      </c>
+      <c r="E1651">
+        <v>0.45340000000000003</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1652">
+        <v>2024</v>
+      </c>
+      <c r="B1652">
+        <v>4</v>
+      </c>
+      <c r="C1652">
+        <v>9</v>
+      </c>
+      <c r="D1652">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1653">
+        <v>2024</v>
+      </c>
+      <c r="B1653">
+        <v>4</v>
+      </c>
+      <c r="C1653">
+        <v>9</v>
+      </c>
+      <c r="D1653">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1654">
+        <v>2024</v>
+      </c>
+      <c r="B1654">
+        <v>4</v>
+      </c>
+      <c r="C1654">
+        <v>9</v>
+      </c>
+      <c r="D1654">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1655">
+        <v>2024</v>
+      </c>
+      <c r="B1655">
+        <v>4</v>
+      </c>
+      <c r="C1655">
+        <v>9</v>
+      </c>
+      <c r="D1655">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1656">
+        <v>2024</v>
+      </c>
+      <c r="B1656">
+        <v>4</v>
+      </c>
+      <c r="C1656">
+        <v>9</v>
+      </c>
+      <c r="D1656">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1657">
+        <v>2024</v>
+      </c>
+      <c r="B1657">
+        <v>4</v>
+      </c>
+      <c r="C1657">
+        <v>9</v>
+      </c>
+      <c r="D1657">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1658">
+        <v>2024</v>
+      </c>
+      <c r="B1658">
+        <v>4</v>
+      </c>
+      <c r="C1658">
+        <v>9</v>
+      </c>
+      <c r="D1658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1659">
+        <v>2024</v>
+      </c>
+      <c r="B1659">
+        <v>4</v>
+      </c>
+      <c r="C1659">
+        <v>9</v>
+      </c>
+      <c r="D1659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1660">
+        <v>2024</v>
+      </c>
+      <c r="B1660">
+        <v>4</v>
+      </c>
+      <c r="C1660">
+        <v>9</v>
+      </c>
+      <c r="D1660">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1661">
+        <v>2024</v>
+      </c>
+      <c r="B1661">
+        <v>4</v>
+      </c>
+      <c r="C1661">
+        <v>9</v>
+      </c>
+      <c r="D1661">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1662">
+        <v>2024</v>
+      </c>
+      <c r="B1662">
+        <v>4</v>
+      </c>
+      <c r="C1662">
+        <v>9</v>
+      </c>
+      <c r="D1662">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1663">
+        <v>2024</v>
+      </c>
+      <c r="B1663">
+        <v>4</v>
+      </c>
+      <c r="C1663">
+        <v>9</v>
+      </c>
+      <c r="D1663">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1664">
+        <v>2024</v>
+      </c>
+      <c r="B1664">
+        <v>4</v>
+      </c>
+      <c r="C1664">
+        <v>9</v>
+      </c>
+      <c r="D1664">
+        <v>6</v>
+      </c>
+      <c r="E1664">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1665">
+        <v>2024</v>
+      </c>
+      <c r="B1665">
+        <v>4</v>
+      </c>
+      <c r="C1665">
+        <v>9</v>
+      </c>
+      <c r="D1665">
+        <v>7</v>
+      </c>
+      <c r="E1665">
+        <v>0.67020000000000002</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1666">
+        <v>2024</v>
+      </c>
+      <c r="B1666">
+        <v>4</v>
+      </c>
+      <c r="C1666">
+        <v>9</v>
+      </c>
+      <c r="D1666">
+        <v>8</v>
+      </c>
+      <c r="E1666">
+        <v>2.6118999999999999</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1667">
+        <v>2024</v>
+      </c>
+      <c r="B1667">
+        <v>4</v>
+      </c>
+      <c r="C1667">
+        <v>9</v>
+      </c>
+      <c r="D1667">
+        <v>9</v>
+      </c>
+      <c r="E1667">
+        <v>5.6279000000000003</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1668">
+        <v>2024</v>
+      </c>
+      <c r="B1668">
+        <v>4</v>
+      </c>
+      <c r="C1668">
+        <v>9</v>
+      </c>
+      <c r="D1668">
+        <v>10</v>
+      </c>
+      <c r="E1668">
+        <v>9.2844999999999995</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1669">
+        <v>2024</v>
+      </c>
+      <c r="B1669">
+        <v>4</v>
+      </c>
+      <c r="C1669">
+        <v>9</v>
+      </c>
+      <c r="D1669">
+        <v>11</v>
+      </c>
+      <c r="E1669">
+        <v>12.132899999999999</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1670">
+        <v>2024</v>
+      </c>
+      <c r="B1670">
+        <v>4</v>
+      </c>
+      <c r="C1670">
+        <v>9</v>
+      </c>
+      <c r="D1670">
+        <v>12</v>
+      </c>
+      <c r="E1670">
+        <v>13.0397</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1671">
+        <v>2024</v>
+      </c>
+      <c r="B1671">
+        <v>4</v>
+      </c>
+      <c r="C1671">
+        <v>9</v>
+      </c>
+      <c r="D1671">
+        <v>13</v>
+      </c>
+      <c r="E1671">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1672">
+        <v>2024</v>
+      </c>
+      <c r="B1672">
+        <v>4</v>
+      </c>
+      <c r="C1672">
+        <v>9</v>
+      </c>
+      <c r="D1672">
+        <v>14</v>
+      </c>
+      <c r="E1672">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1673">
+        <v>2024</v>
+      </c>
+      <c r="B1673">
+        <v>4</v>
+      </c>
+      <c r="C1673">
+        <v>9</v>
+      </c>
+      <c r="D1673">
+        <v>15</v>
+      </c>
+      <c r="E1673">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1674">
+        <v>2024</v>
+      </c>
+      <c r="B1674">
+        <v>4</v>
+      </c>
+      <c r="C1674">
+        <v>9</v>
+      </c>
+      <c r="D1674">
+        <v>16</v>
+      </c>
+      <c r="E1674">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1675">
+        <v>2024</v>
+      </c>
+      <c r="B1675">
+        <v>4</v>
+      </c>
+      <c r="C1675">
+        <v>9</v>
+      </c>
+      <c r="D1675">
+        <v>17</v>
+      </c>
+      <c r="E1675">
+        <v>0.45340000000000003</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1676">
+        <v>2024</v>
+      </c>
+      <c r="B1676">
+        <v>4</v>
+      </c>
+      <c r="C1676">
+        <v>9</v>
+      </c>
+      <c r="D1676">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1677">
+        <v>2024</v>
+      </c>
+      <c r="B1677">
+        <v>4</v>
+      </c>
+      <c r="C1677">
+        <v>9</v>
+      </c>
+      <c r="D1677">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1678">
+        <v>2024</v>
+      </c>
+      <c r="B1678">
+        <v>4</v>
+      </c>
+      <c r="C1678">
+        <v>9</v>
+      </c>
+      <c r="D1678">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1679">
+        <v>2024</v>
+      </c>
+      <c r="B1679">
+        <v>4</v>
+      </c>
+      <c r="C1679">
+        <v>9</v>
+      </c>
+      <c r="D1679">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1680">
+        <v>2024</v>
+      </c>
+      <c r="B1680">
+        <v>4</v>
+      </c>
+      <c r="C1680">
+        <v>9</v>
+      </c>
+      <c r="D1680">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1681">
+        <v>2024</v>
+      </c>
+      <c r="B1681">
+        <v>4</v>
+      </c>
+      <c r="C1681">
+        <v>9</v>
+      </c>
+      <c r="D1681">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1682">
+        <v>2024</v>
+      </c>
+      <c r="B1682">
+        <v>4</v>
+      </c>
+      <c r="C1682">
+        <v>10</v>
+      </c>
+      <c r="D1682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1683">
+        <v>2024</v>
+      </c>
+      <c r="B1683">
+        <v>4</v>
+      </c>
+      <c r="C1683">
+        <v>10</v>
+      </c>
+      <c r="D1683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1684">
+        <v>2024</v>
+      </c>
+      <c r="B1684">
+        <v>4</v>
+      </c>
+      <c r="C1684">
+        <v>10</v>
+      </c>
+      <c r="D1684">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1685">
+        <v>2024</v>
+      </c>
+      <c r="B1685">
+        <v>4</v>
+      </c>
+      <c r="C1685">
+        <v>10</v>
+      </c>
+      <c r="D1685">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1686">
+        <v>2024</v>
+      </c>
+      <c r="B1686">
+        <v>4</v>
+      </c>
+      <c r="C1686">
+        <v>10</v>
+      </c>
+      <c r="D1686">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1687">
+        <v>2024</v>
+      </c>
+      <c r="B1687">
+        <v>4</v>
+      </c>
+      <c r="C1687">
+        <v>10</v>
+      </c>
+      <c r="D1687">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1688">
+        <v>2024</v>
+      </c>
+      <c r="B1688">
+        <v>4</v>
+      </c>
+      <c r="C1688">
+        <v>10</v>
+      </c>
+      <c r="D1688">
+        <v>6</v>
+      </c>
+      <c r="E1688">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1689">
+        <v>2024</v>
+      </c>
+      <c r="B1689">
+        <v>4</v>
+      </c>
+      <c r="C1689">
+        <v>10</v>
+      </c>
+      <c r="D1689">
+        <v>7</v>
+      </c>
+      <c r="E1689">
+        <v>0.67020000000000002</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1690">
+        <v>2024</v>
+      </c>
+      <c r="B1690">
+        <v>4</v>
+      </c>
+      <c r="C1690">
+        <v>10</v>
+      </c>
+      <c r="D1690">
+        <v>8</v>
+      </c>
+      <c r="E1690">
+        <v>2.6118999999999999</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1691">
+        <v>2024</v>
+      </c>
+      <c r="B1691">
+        <v>4</v>
+      </c>
+      <c r="C1691">
+        <v>10</v>
+      </c>
+      <c r="D1691">
+        <v>9</v>
+      </c>
+      <c r="E1691">
+        <v>5.6279000000000003</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1692">
+        <v>2024</v>
+      </c>
+      <c r="B1692">
+        <v>4</v>
+      </c>
+      <c r="C1692">
+        <v>10</v>
+      </c>
+      <c r="D1692">
+        <v>10</v>
+      </c>
+      <c r="E1692">
+        <v>9.2844999999999995</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1693">
+        <v>2024</v>
+      </c>
+      <c r="B1693">
+        <v>4</v>
+      </c>
+      <c r="C1693">
+        <v>10</v>
+      </c>
+      <c r="D1693">
+        <v>11</v>
+      </c>
+      <c r="E1693">
+        <v>12.132899999999999</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1694">
+        <v>2024</v>
+      </c>
+      <c r="B1694">
+        <v>4</v>
+      </c>
+      <c r="C1694">
+        <v>10</v>
+      </c>
+      <c r="D1694">
+        <v>12</v>
+      </c>
+      <c r="E1694">
+        <v>13.0397</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1695">
+        <v>2024</v>
+      </c>
+      <c r="B1695">
+        <v>4</v>
+      </c>
+      <c r="C1695">
+        <v>10</v>
+      </c>
+      <c r="D1695">
+        <v>13</v>
+      </c>
+      <c r="E1695">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1696">
+        <v>2024</v>
+      </c>
+      <c r="B1696">
+        <v>4</v>
+      </c>
+      <c r="C1696">
+        <v>10</v>
+      </c>
+      <c r="D1696">
+        <v>14</v>
+      </c>
+      <c r="E1696">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1697">
+        <v>2024</v>
+      </c>
+      <c r="B1697">
+        <v>4</v>
+      </c>
+      <c r="C1697">
+        <v>10</v>
+      </c>
+      <c r="D1697">
+        <v>15</v>
+      </c>
+      <c r="E1697">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1698">
+        <v>2024</v>
+      </c>
+      <c r="B1698">
+        <v>4</v>
+      </c>
+      <c r="C1698">
+        <v>10</v>
+      </c>
+      <c r="D1698">
+        <v>16</v>
+      </c>
+      <c r="E1698">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1699">
+        <v>2024</v>
+      </c>
+      <c r="B1699">
+        <v>4</v>
+      </c>
+      <c r="C1699">
+        <v>10</v>
+      </c>
+      <c r="D1699">
+        <v>17</v>
+      </c>
+      <c r="E1699">
+        <v>0.45340000000000003</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1700">
+        <v>2024</v>
+      </c>
+      <c r="B1700">
+        <v>4</v>
+      </c>
+      <c r="C1700">
+        <v>10</v>
+      </c>
+      <c r="D1700">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1701">
+        <v>2024</v>
+      </c>
+      <c r="B1701">
+        <v>4</v>
+      </c>
+      <c r="C1701">
+        <v>10</v>
+      </c>
+      <c r="D1701">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1702">
+        <v>2024</v>
+      </c>
+      <c r="B1702">
+        <v>4</v>
+      </c>
+      <c r="C1702">
+        <v>10</v>
+      </c>
+      <c r="D1702">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1703">
+        <v>2024</v>
+      </c>
+      <c r="B1703">
+        <v>4</v>
+      </c>
+      <c r="C1703">
+        <v>10</v>
+      </c>
+      <c r="D1703">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1704">
+        <v>2024</v>
+      </c>
+      <c r="B1704">
+        <v>4</v>
+      </c>
+      <c r="C1704">
+        <v>10</v>
+      </c>
+      <c r="D1704">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1705">
+        <v>2024</v>
+      </c>
+      <c r="B1705">
+        <v>4</v>
+      </c>
+      <c r="C1705">
+        <v>10</v>
+      </c>
+      <c r="D1705">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1706">
+        <v>2024</v>
+      </c>
+      <c r="B1706">
+        <v>4</v>
+      </c>
+      <c r="C1706">
+        <v>10</v>
+      </c>
+      <c r="D1706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1707">
+        <v>2024</v>
+      </c>
+      <c r="B1707">
+        <v>4</v>
+      </c>
+      <c r="C1707">
+        <v>10</v>
+      </c>
+      <c r="D1707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1708">
+        <v>2024</v>
+      </c>
+      <c r="B1708">
+        <v>4</v>
+      </c>
+      <c r="C1708">
+        <v>10</v>
+      </c>
+      <c r="D1708">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1709">
+        <v>2024</v>
+      </c>
+      <c r="B1709">
+        <v>4</v>
+      </c>
+      <c r="C1709">
+        <v>10</v>
+      </c>
+      <c r="D1709">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1710">
+        <v>2024</v>
+      </c>
+      <c r="B1710">
+        <v>4</v>
+      </c>
+      <c r="C1710">
+        <v>10</v>
+      </c>
+      <c r="D1710">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1711">
+        <v>2024</v>
+      </c>
+      <c r="B1711">
+        <v>4</v>
+      </c>
+      <c r="C1711">
+        <v>10</v>
+      </c>
+      <c r="D1711">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1712">
+        <v>2024</v>
+      </c>
+      <c r="B1712">
+        <v>4</v>
+      </c>
+      <c r="C1712">
+        <v>10</v>
+      </c>
+      <c r="D1712">
+        <v>6</v>
+      </c>
+      <c r="E1712">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1713">
+        <v>2024</v>
+      </c>
+      <c r="B1713">
+        <v>4</v>
+      </c>
+      <c r="C1713">
+        <v>10</v>
+      </c>
+      <c r="D1713">
+        <v>7</v>
+      </c>
+      <c r="E1713">
+        <v>0.67020000000000002</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1714">
+        <v>2024</v>
+      </c>
+      <c r="B1714">
+        <v>4</v>
+      </c>
+      <c r="C1714">
+        <v>10</v>
+      </c>
+      <c r="D1714">
+        <v>8</v>
+      </c>
+      <c r="E1714">
+        <v>2.6118999999999999</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1715">
+        <v>2024</v>
+      </c>
+      <c r="B1715">
+        <v>4</v>
+      </c>
+      <c r="C1715">
+        <v>10</v>
+      </c>
+      <c r="D1715">
+        <v>9</v>
+      </c>
+      <c r="E1715">
+        <v>5.6279000000000003</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1716">
+        <v>2024</v>
+      </c>
+      <c r="B1716">
+        <v>4</v>
+      </c>
+      <c r="C1716">
+        <v>10</v>
+      </c>
+      <c r="D1716">
+        <v>10</v>
+      </c>
+      <c r="E1716">
+        <v>9.2844999999999995</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1717">
+        <v>2024</v>
+      </c>
+      <c r="B1717">
+        <v>4</v>
+      </c>
+      <c r="C1717">
+        <v>10</v>
+      </c>
+      <c r="D1717">
+        <v>11</v>
+      </c>
+      <c r="E1717">
+        <v>12.132899999999999</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1718">
+        <v>2024</v>
+      </c>
+      <c r="B1718">
+        <v>4</v>
+      </c>
+      <c r="C1718">
+        <v>10</v>
+      </c>
+      <c r="D1718">
+        <v>12</v>
+      </c>
+      <c r="E1718">
+        <v>13.0693</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1719">
+        <v>2024</v>
+      </c>
+      <c r="B1719">
+        <v>4</v>
+      </c>
+      <c r="C1719">
+        <v>10</v>
+      </c>
+      <c r="D1719">
+        <v>13</v>
+      </c>
+      <c r="E1719">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1720">
+        <v>2024</v>
+      </c>
+      <c r="B1720">
+        <v>4</v>
+      </c>
+      <c r="C1720">
+        <v>10</v>
+      </c>
+      <c r="D1720">
+        <v>14</v>
+      </c>
+      <c r="E1720">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1721">
+        <v>2024</v>
+      </c>
+      <c r="B1721">
+        <v>4</v>
+      </c>
+      <c r="C1721">
+        <v>10</v>
+      </c>
+      <c r="D1721">
+        <v>15</v>
+      </c>
+      <c r="E1721">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1722">
+        <v>2024</v>
+      </c>
+      <c r="B1722">
+        <v>4</v>
+      </c>
+      <c r="C1722">
+        <v>10</v>
+      </c>
+      <c r="D1722">
+        <v>16</v>
+      </c>
+      <c r="E1722">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1723">
+        <v>2024</v>
+      </c>
+      <c r="B1723">
+        <v>4</v>
+      </c>
+      <c r="C1723">
+        <v>10</v>
+      </c>
+      <c r="D1723">
+        <v>17</v>
+      </c>
+      <c r="E1723">
+        <v>0.45340000000000003</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1724">
+        <v>2024</v>
+      </c>
+      <c r="B1724">
+        <v>4</v>
+      </c>
+      <c r="C1724">
+        <v>10</v>
+      </c>
+      <c r="D1724">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1725">
+        <v>2024</v>
+      </c>
+      <c r="B1725">
+        <v>4</v>
+      </c>
+      <c r="C1725">
+        <v>10</v>
+      </c>
+      <c r="D1725">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1726">
+        <v>2024</v>
+      </c>
+      <c r="B1726">
+        <v>4</v>
+      </c>
+      <c r="C1726">
+        <v>10</v>
+      </c>
+      <c r="D1726">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1727">
+        <v>2024</v>
+      </c>
+      <c r="B1727">
+        <v>4</v>
+      </c>
+      <c r="C1727">
+        <v>10</v>
+      </c>
+      <c r="D1727">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1728">
+        <v>2024</v>
+      </c>
+      <c r="B1728">
+        <v>4</v>
+      </c>
+      <c r="C1728">
+        <v>10</v>
+      </c>
+      <c r="D1728">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1729">
+        <v>2024</v>
+      </c>
+      <c r="B1729">
+        <v>4</v>
+      </c>
+      <c r="C1729">
+        <v>10</v>
+      </c>
+      <c r="D1729">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1730">
+        <v>2024</v>
+      </c>
+      <c r="B1730">
+        <v>4</v>
+      </c>
+      <c r="C1730">
+        <v>11</v>
+      </c>
+      <c r="D1730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1731">
+        <v>2024</v>
+      </c>
+      <c r="B1731">
+        <v>4</v>
+      </c>
+      <c r="C1731">
+        <v>11</v>
+      </c>
+      <c r="D1731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1732">
+        <v>2024</v>
+      </c>
+      <c r="B1732">
+        <v>4</v>
+      </c>
+      <c r="C1732">
+        <v>11</v>
+      </c>
+      <c r="D1732">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1733">
+        <v>2024</v>
+      </c>
+      <c r="B1733">
+        <v>4</v>
+      </c>
+      <c r="C1733">
+        <v>11</v>
+      </c>
+      <c r="D1733">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1734">
+        <v>2024</v>
+      </c>
+      <c r="B1734">
+        <v>4</v>
+      </c>
+      <c r="C1734">
+        <v>11</v>
+      </c>
+      <c r="D1734">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1735">
+        <v>2024</v>
+      </c>
+      <c r="B1735">
+        <v>4</v>
+      </c>
+      <c r="C1735">
+        <v>11</v>
+      </c>
+      <c r="D1735">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1736">
+        <v>2024</v>
+      </c>
+      <c r="B1736">
+        <v>4</v>
+      </c>
+      <c r="C1736">
+        <v>11</v>
+      </c>
+      <c r="D1736">
+        <v>6</v>
+      </c>
+      <c r="E1736">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1737">
+        <v>2024</v>
+      </c>
+      <c r="B1737">
+        <v>4</v>
+      </c>
+      <c r="C1737">
+        <v>11</v>
+      </c>
+      <c r="D1737">
+        <v>7</v>
+      </c>
+      <c r="E1737">
+        <v>0.67020000000000002</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1738">
+        <v>2024</v>
+      </c>
+      <c r="B1738">
+        <v>4</v>
+      </c>
+      <c r="C1738">
+        <v>11</v>
+      </c>
+      <c r="D1738">
+        <v>8</v>
+      </c>
+      <c r="E1738">
+        <v>2.6118999999999999</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1739">
+        <v>2024</v>
+      </c>
+      <c r="B1739">
+        <v>4</v>
+      </c>
+      <c r="C1739">
+        <v>11</v>
+      </c>
+      <c r="D1739">
+        <v>9</v>
+      </c>
+      <c r="E1739">
+        <v>5.6279000000000003</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1740">
+        <v>2024</v>
+      </c>
+      <c r="B1740">
+        <v>4</v>
+      </c>
+      <c r="C1740">
+        <v>11</v>
+      </c>
+      <c r="D1740">
+        <v>10</v>
+      </c>
+      <c r="E1740">
+        <v>9.2844999999999995</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1741">
+        <v>2024</v>
+      </c>
+      <c r="B1741">
+        <v>4</v>
+      </c>
+      <c r="C1741">
+        <v>11</v>
+      </c>
+      <c r="D1741">
+        <v>11</v>
+      </c>
+      <c r="E1741">
+        <v>12.132899999999999</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1742">
+        <v>2024</v>
+      </c>
+      <c r="B1742">
+        <v>4</v>
+      </c>
+      <c r="C1742">
+        <v>11</v>
+      </c>
+      <c r="D1742">
+        <v>12</v>
+      </c>
+      <c r="E1742">
+        <v>13.0693</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1743">
+        <v>2024</v>
+      </c>
+      <c r="B1743">
+        <v>4</v>
+      </c>
+      <c r="C1743">
+        <v>11</v>
+      </c>
+      <c r="D1743">
+        <v>13</v>
+      </c>
+      <c r="E1743">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1744">
+        <v>2024</v>
+      </c>
+      <c r="B1744">
+        <v>4</v>
+      </c>
+      <c r="C1744">
+        <v>11</v>
+      </c>
+      <c r="D1744">
+        <v>14</v>
+      </c>
+      <c r="E1744">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1745">
+        <v>2024</v>
+      </c>
+      <c r="B1745">
+        <v>4</v>
+      </c>
+      <c r="C1745">
+        <v>11</v>
+      </c>
+      <c r="D1745">
+        <v>15</v>
+      </c>
+      <c r="E1745">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1746">
+        <v>2024</v>
+      </c>
+      <c r="B1746">
+        <v>4</v>
+      </c>
+      <c r="C1746">
+        <v>11</v>
+      </c>
+      <c r="D1746">
+        <v>16</v>
+      </c>
+      <c r="E1746">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1747">
+        <v>2024</v>
+      </c>
+      <c r="B1747">
+        <v>4</v>
+      </c>
+      <c r="C1747">
+        <v>11</v>
+      </c>
+      <c r="D1747">
+        <v>17</v>
+      </c>
+      <c r="E1747">
+        <v>0.45340000000000003</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1748">
+        <v>2024</v>
+      </c>
+      <c r="B1748">
+        <v>4</v>
+      </c>
+      <c r="C1748">
+        <v>11</v>
+      </c>
+      <c r="D1748">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1749">
+        <v>2024</v>
+      </c>
+      <c r="B1749">
+        <v>4</v>
+      </c>
+      <c r="C1749">
+        <v>11</v>
+      </c>
+      <c r="D1749">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1750">
+        <v>2024</v>
+      </c>
+      <c r="B1750">
+        <v>4</v>
+      </c>
+      <c r="C1750">
+        <v>11</v>
+      </c>
+      <c r="D1750">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1751">
+        <v>2024</v>
+      </c>
+      <c r="B1751">
+        <v>4</v>
+      </c>
+      <c r="C1751">
+        <v>11</v>
+      </c>
+      <c r="D1751">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1752">
+        <v>2024</v>
+      </c>
+      <c r="B1752">
+        <v>4</v>
+      </c>
+      <c r="C1752">
+        <v>11</v>
+      </c>
+      <c r="D1752">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1753">
+        <v>2024</v>
+      </c>
+      <c r="B1753">
+        <v>4</v>
+      </c>
+      <c r="C1753">
+        <v>11</v>
+      </c>
+      <c r="D1753">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1754">
+        <v>2024</v>
+      </c>
+      <c r="B1754">
+        <v>4</v>
+      </c>
+      <c r="C1754">
+        <v>12</v>
+      </c>
+      <c r="D1754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1755">
+        <v>2024</v>
+      </c>
+      <c r="B1755">
+        <v>4</v>
+      </c>
+      <c r="C1755">
+        <v>12</v>
+      </c>
+      <c r="D1755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1756">
+        <v>2024</v>
+      </c>
+      <c r="B1756">
+        <v>4</v>
+      </c>
+      <c r="C1756">
+        <v>12</v>
+      </c>
+      <c r="D1756">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1757">
+        <v>2024</v>
+      </c>
+      <c r="B1757">
+        <v>4</v>
+      </c>
+      <c r="C1757">
+        <v>12</v>
+      </c>
+      <c r="D1757">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1758">
+        <v>2024</v>
+      </c>
+      <c r="B1758">
+        <v>4</v>
+      </c>
+      <c r="C1758">
+        <v>12</v>
+      </c>
+      <c r="D1758">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1759">
+        <v>2024</v>
+      </c>
+      <c r="B1759">
+        <v>4</v>
+      </c>
+      <c r="C1759">
+        <v>12</v>
+      </c>
+      <c r="D1759">
+        <v>5</v>
+      </c>
+      <c r="E1759" s="1"/>
+    </row>
+    <row r="1760" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1760">
+        <v>2024</v>
+      </c>
+      <c r="B1760">
+        <v>4</v>
+      </c>
+      <c r="C1760">
+        <v>12</v>
+      </c>
+      <c r="D1760">
+        <v>6</v>
+      </c>
+      <c r="E1760">
+        <v>5.91E-2</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1761">
+        <v>2024</v>
+      </c>
+      <c r="B1761">
+        <v>4</v>
+      </c>
+      <c r="C1761">
+        <v>12</v>
+      </c>
+      <c r="D1761">
+        <v>7</v>
+      </c>
+      <c r="E1761">
+        <v>0.67020000000000002</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1762">
+        <v>2024</v>
+      </c>
+      <c r="B1762">
+        <v>4</v>
+      </c>
+      <c r="C1762">
+        <v>12</v>
+      </c>
+      <c r="D1762">
+        <v>8</v>
+      </c>
+      <c r="E1762">
+        <v>2.6118999999999999</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1763">
+        <v>2024</v>
+      </c>
+      <c r="B1763">
+        <v>4</v>
+      </c>
+      <c r="C1763">
+        <v>12</v>
+      </c>
+      <c r="D1763">
+        <v>9</v>
+      </c>
+      <c r="E1763">
+        <v>5.8643999999999998</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1764">
+        <v>2024</v>
+      </c>
+      <c r="B1764">
+        <v>4</v>
+      </c>
+      <c r="C1764">
+        <v>12</v>
+      </c>
+      <c r="D1764">
+        <v>10</v>
+      </c>
+      <c r="E1764">
+        <v>9.2844999999999995</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1765">
+        <v>2024</v>
+      </c>
+      <c r="B1765">
+        <v>4</v>
+      </c>
+      <c r="C1765">
+        <v>12</v>
+      </c>
+      <c r="D1765">
+        <v>11</v>
+      </c>
+      <c r="E1765">
+        <v>12.132899999999999</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1766">
+        <v>2024</v>
+      </c>
+      <c r="B1766">
+        <v>4</v>
+      </c>
+      <c r="C1766">
+        <v>12</v>
+      </c>
+      <c r="D1766">
+        <v>12</v>
+      </c>
+      <c r="E1766">
+        <v>13.0693</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1767">
+        <v>2024</v>
+      </c>
+      <c r="B1767">
+        <v>4</v>
+      </c>
+      <c r="C1767">
+        <v>12</v>
+      </c>
+      <c r="D1767">
+        <v>13</v>
+      </c>
+      <c r="E1767">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1768">
+        <v>2024</v>
+      </c>
+      <c r="B1768">
+        <v>4</v>
+      </c>
+      <c r="C1768">
+        <v>12</v>
+      </c>
+      <c r="D1768">
+        <v>14</v>
+      </c>
+      <c r="E1768">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1769">
+        <v>2024</v>
+      </c>
+      <c r="B1769">
+        <v>4</v>
+      </c>
+      <c r="C1769">
+        <v>12</v>
+      </c>
+      <c r="D1769">
+        <v>15</v>
+      </c>
+      <c r="E1769">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1770">
+        <v>2024</v>
+      </c>
+      <c r="B1770">
+        <v>4</v>
+      </c>
+      <c r="C1770">
+        <v>12</v>
+      </c>
+      <c r="D1770">
+        <v>16</v>
+      </c>
+      <c r="E1770">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1771">
+        <v>2024</v>
+      </c>
+      <c r="B1771">
+        <v>4</v>
+      </c>
+      <c r="C1771">
+        <v>12</v>
+      </c>
+      <c r="D1771">
+        <v>17</v>
+      </c>
+      <c r="E1771">
+        <v>0.45340000000000003</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1772">
+        <v>2024</v>
+      </c>
+      <c r="B1772">
+        <v>4</v>
+      </c>
+      <c r="C1772">
+        <v>12</v>
+      </c>
+      <c r="D1772">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1773">
+        <v>2024</v>
+      </c>
+      <c r="B1773">
+        <v>4</v>
+      </c>
+      <c r="C1773">
+        <v>12</v>
+      </c>
+      <c r="D1773">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1774">
+        <v>2024</v>
+      </c>
+      <c r="B1774">
+        <v>4</v>
+      </c>
+      <c r="C1774">
+        <v>12</v>
+      </c>
+      <c r="D1774">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1775">
+        <v>2024</v>
+      </c>
+      <c r="B1775">
+        <v>4</v>
+      </c>
+      <c r="C1775">
+        <v>12</v>
+      </c>
+      <c r="D1775">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1776">
+        <v>2024</v>
+      </c>
+      <c r="B1776">
+        <v>4</v>
+      </c>
+      <c r="C1776">
+        <v>12</v>
+      </c>
+      <c r="D1776">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1777">
+        <v>2024</v>
+      </c>
+      <c r="B1777">
+        <v>4</v>
+      </c>
+      <c r="C1777">
+        <v>12</v>
+      </c>
+      <c r="D1777">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1778">
+        <v>13</v>
+      </c>
+      <c r="D1778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1779">
+        <v>13</v>
+      </c>
+      <c r="D1779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1780">
+        <v>13</v>
+      </c>
+      <c r="D1780">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1781">
+        <v>13</v>
+      </c>
+      <c r="D1781">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1782">
+        <v>13</v>
+      </c>
+      <c r="D1782">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1783">
+        <v>13</v>
+      </c>
+      <c r="D1783">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1784">
+        <v>13</v>
+      </c>
+      <c r="D1784">
+        <v>6</v>
+      </c>
+      <c r="E1784">
+        <v>5.91E-2</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1785">
+        <v>13</v>
+      </c>
+      <c r="D1785">
+        <v>7</v>
+      </c>
+      <c r="E1785">
+        <v>0.67020000000000002</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1786">
+        <v>13</v>
+      </c>
+      <c r="D1786">
+        <v>8</v>
+      </c>
+      <c r="E1786">
+        <v>2.6118999999999999</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1787">
+        <v>13</v>
+      </c>
+      <c r="D1787">
+        <v>9</v>
+      </c>
+      <c r="E1787">
+        <v>5.8643999999999998</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1788">
+        <v>13</v>
+      </c>
+      <c r="D1788">
+        <v>10</v>
+      </c>
+      <c r="E1788">
+        <v>9.2844999999999995</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1789">
+        <v>13</v>
+      </c>
+      <c r="D1789">
+        <v>11</v>
+      </c>
+      <c r="E1789">
+        <v>12.132899999999999</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1790">
+        <v>13</v>
+      </c>
+      <c r="D1790">
+        <v>12</v>
+      </c>
+      <c r="E1790">
+        <v>13.0693</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1791">
+        <v>13</v>
+      </c>
+      <c r="D1791">
+        <v>13</v>
+      </c>
+      <c r="E1791">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1792">
+        <v>13</v>
+      </c>
+      <c r="D1792">
+        <v>14</v>
+      </c>
+      <c r="E1792">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1793" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1793">
+        <v>13</v>
+      </c>
+      <c r="D1793">
+        <v>15</v>
+      </c>
+      <c r="E1793">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1794" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1794">
+        <v>13</v>
+      </c>
+      <c r="D1794">
+        <v>16</v>
+      </c>
+      <c r="E1794">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1795" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1795">
+        <v>13</v>
+      </c>
+      <c r="D1795">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1796" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1796">
+        <v>13</v>
+      </c>
+      <c r="D1796">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1797" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1797">
+        <v>13</v>
+      </c>
+      <c r="D1797">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1798" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1798">
+        <v>13</v>
+      </c>
+      <c r="D1798">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1799" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1799">
+        <v>13</v>
+      </c>
+      <c r="D1799">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1800" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1800">
+        <v>13</v>
+      </c>
+      <c r="D1800">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1801" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1801">
+        <v>13</v>
+      </c>
+      <c r="D1801">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1802" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1802">
+        <v>14</v>
+      </c>
+      <c r="D1802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1803" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1803">
+        <v>14</v>
+      </c>
+      <c r="D1803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1804" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1804">
+        <v>14</v>
+      </c>
+      <c r="D1804">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1805" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1805">
+        <v>14</v>
+      </c>
+      <c r="D1805">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1806" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1806">
+        <v>14</v>
+      </c>
+      <c r="D1806">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1807" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1807">
+        <v>14</v>
+      </c>
+      <c r="D1807">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1808" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1808">
+        <v>14</v>
+      </c>
+      <c r="D1808">
+        <v>6</v>
+      </c>
+      <c r="E1808">
+        <v>5.91E-2</v>
+      </c>
+    </row>
+    <row r="1809" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1809">
+        <v>14</v>
+      </c>
+      <c r="D1809">
+        <v>7</v>
+      </c>
+      <c r="E1809">
+        <v>0.67020000000000002</v>
+      </c>
+    </row>
+    <row r="1810" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1810">
+        <v>14</v>
+      </c>
+      <c r="D1810">
+        <v>8</v>
+      </c>
+      <c r="E1810">
+        <v>2.6118999999999999</v>
+      </c>
+    </row>
+    <row r="1811" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1811">
+        <v>14</v>
+      </c>
+      <c r="D1811">
+        <v>9</v>
+      </c>
+      <c r="E1811">
+        <v>5.8643999999999998</v>
+      </c>
+    </row>
+    <row r="1812" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1812">
+        <v>14</v>
+      </c>
+      <c r="D1812">
+        <v>10</v>
+      </c>
+      <c r="E1812">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="1813" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1813">
+        <v>14</v>
+      </c>
+      <c r="D1813">
+        <v>11</v>
+      </c>
+      <c r="E1813">
+        <v>12.132899999999999</v>
+      </c>
+    </row>
+    <row r="1814" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1814">
+        <v>14</v>
+      </c>
+      <c r="D1814">
+        <v>12</v>
+      </c>
+      <c r="E1814">
+        <v>13.0693</v>
+      </c>
+    </row>
+    <row r="1815" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1815">
+        <v>14</v>
+      </c>
+      <c r="D1815">
+        <v>13</v>
+      </c>
+      <c r="E1815">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1816" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1816">
+        <v>14</v>
+      </c>
+      <c r="D1816">
+        <v>14</v>
+      </c>
+      <c r="E1816">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1817" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1817">
+        <v>14</v>
+      </c>
+      <c r="D1817">
+        <v>15</v>
+      </c>
+      <c r="E1817">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1818" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1818">
+        <v>14</v>
+      </c>
+      <c r="D1818">
+        <v>16</v>
+      </c>
+      <c r="E1818">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1819" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1819">
+        <v>14</v>
+      </c>
+      <c r="D1819">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1820" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1820">
+        <v>14</v>
+      </c>
+      <c r="D1820">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1821" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1821">
+        <v>14</v>
+      </c>
+      <c r="D1821">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1822" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1822">
+        <v>14</v>
+      </c>
+      <c r="D1822">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1823" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1823">
+        <v>14</v>
+      </c>
+      <c r="D1823">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1824" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1824">
+        <v>14</v>
+      </c>
+      <c r="D1824">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1825" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1825">
+        <v>14</v>
+      </c>
+      <c r="D1825">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1826" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1826">
+        <v>15</v>
+      </c>
+      <c r="D1826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1827">
+        <v>15</v>
+      </c>
+      <c r="D1827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1828" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1828">
+        <v>15</v>
+      </c>
+      <c r="D1828">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1829" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1829">
+        <v>15</v>
+      </c>
+      <c r="D1829">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1830" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1830">
+        <v>15</v>
+      </c>
+      <c r="D1830">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1831" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1831">
+        <v>15</v>
+      </c>
+      <c r="D1831">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1832" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1832">
+        <v>15</v>
+      </c>
+      <c r="D1832">
+        <v>6</v>
+      </c>
+      <c r="E1832">
+        <v>5.91E-2</v>
+      </c>
+    </row>
+    <row r="1833" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1833">
+        <v>15</v>
+      </c>
+      <c r="D1833">
+        <v>7</v>
+      </c>
+      <c r="E1833">
+        <v>0.74909999999999999</v>
+      </c>
+    </row>
+    <row r="1834" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1834">
+        <v>15</v>
+      </c>
+      <c r="D1834">
+        <v>8</v>
+      </c>
+      <c r="E1834">
+        <v>2.6118999999999999</v>
+      </c>
+    </row>
+    <row r="1835" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1835">
+        <v>15</v>
+      </c>
+      <c r="D1835">
+        <v>9</v>
+      </c>
+      <c r="E1835">
+        <v>5.8643999999999998</v>
+      </c>
+    </row>
+    <row r="1836" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1836">
+        <v>15</v>
+      </c>
+      <c r="D1836">
+        <v>10</v>
+      </c>
+      <c r="E1836">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="1837" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1837">
+        <v>15</v>
+      </c>
+      <c r="D1837">
+        <v>11</v>
+      </c>
+      <c r="E1837">
+        <v>12.132899999999999</v>
+      </c>
+    </row>
+    <row r="1838" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1838">
+        <v>15</v>
+      </c>
+      <c r="D1838">
+        <v>12</v>
+      </c>
+      <c r="E1838">
+        <v>13.098800000000001</v>
+      </c>
+    </row>
+    <row r="1839" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1839">
+        <v>15</v>
+      </c>
+      <c r="D1839">
+        <v>13</v>
+      </c>
+      <c r="E1839">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1840" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1840">
+        <v>15</v>
+      </c>
+      <c r="D1840">
+        <v>14</v>
+      </c>
+      <c r="E1840">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1841" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1841">
+        <v>15</v>
+      </c>
+      <c r="D1841">
+        <v>15</v>
+      </c>
+      <c r="E1841">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1842" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1842">
+        <v>15</v>
+      </c>
+      <c r="D1842">
+        <v>16</v>
+      </c>
+      <c r="E1842">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1843" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1843">
+        <v>15</v>
+      </c>
+      <c r="D1843">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1844" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1844">
+        <v>15</v>
+      </c>
+      <c r="D1844">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1845" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1845">
+        <v>15</v>
+      </c>
+      <c r="D1845">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1846" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1846">
+        <v>15</v>
+      </c>
+      <c r="D1846">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1847" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1847">
+        <v>15</v>
+      </c>
+      <c r="D1847">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1848" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1848">
+        <v>15</v>
+      </c>
+      <c r="D1848">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1849" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1849">
+        <v>15</v>
+      </c>
+      <c r="D1849">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1850" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1850">
+        <v>16</v>
+      </c>
+      <c r="D1850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1851">
+        <v>16</v>
+      </c>
+      <c r="D1851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1852" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1852">
+        <v>16</v>
+      </c>
+      <c r="D1852">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1853" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1853">
+        <v>16</v>
+      </c>
+      <c r="D1853">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1854" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1854">
+        <v>16</v>
+      </c>
+      <c r="D1854">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1855" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1855">
+        <v>16</v>
+      </c>
+      <c r="D1855">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1856" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1856">
+        <v>16</v>
+      </c>
+      <c r="D1856">
+        <v>6</v>
+      </c>
+      <c r="E1856">
+        <v>5.91E-2</v>
+      </c>
+    </row>
+    <row r="1857" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1857">
+        <v>16</v>
+      </c>
+      <c r="D1857">
+        <v>7</v>
+      </c>
+      <c r="E1857">
+        <v>0.74909999999999999</v>
+      </c>
+    </row>
+    <row r="1858" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1858">
+        <v>16</v>
+      </c>
+      <c r="D1858">
+        <v>8</v>
+      </c>
+      <c r="E1858">
+        <v>2.6118999999999999</v>
+      </c>
+    </row>
+    <row r="1859" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1859">
+        <v>16</v>
+      </c>
+      <c r="D1859">
+        <v>9</v>
+      </c>
+      <c r="E1859">
+        <v>5.8643999999999998</v>
+      </c>
+    </row>
+    <row r="1860" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1860">
+        <v>16</v>
+      </c>
+      <c r="D1860">
+        <v>10</v>
+      </c>
+      <c r="E1860">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="1861" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1861">
+        <v>16</v>
+      </c>
+      <c r="D1861">
+        <v>11</v>
+      </c>
+      <c r="E1861">
+        <v>12.132899999999999</v>
+      </c>
+    </row>
+    <row r="1862" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1862">
+        <v>16</v>
+      </c>
+      <c r="D1862">
+        <v>12</v>
+      </c>
+      <c r="E1862">
+        <v>13.098800000000001</v>
+      </c>
+    </row>
+    <row r="1863" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1863">
+        <v>16</v>
+      </c>
+      <c r="D1863">
+        <v>13</v>
+      </c>
+      <c r="E1863">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1864" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1864">
+        <v>16</v>
+      </c>
+      <c r="D1864">
+        <v>14</v>
+      </c>
+      <c r="E1864">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1865" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1865">
+        <v>16</v>
+      </c>
+      <c r="D1865">
+        <v>15</v>
+      </c>
+      <c r="E1865">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1866" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1866">
+        <v>16</v>
+      </c>
+      <c r="D1866">
+        <v>16</v>
+      </c>
+      <c r="E1866">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1867" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1867">
+        <v>16</v>
+      </c>
+      <c r="D1867">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1868" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1868">
+        <v>16</v>
+      </c>
+      <c r="D1868">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1869" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1869">
+        <v>16</v>
+      </c>
+      <c r="D1869">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1870" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1870">
+        <v>16</v>
+      </c>
+      <c r="D1870">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1871" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1871">
+        <v>16</v>
+      </c>
+      <c r="D1871">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1872" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1872">
+        <v>16</v>
+      </c>
+      <c r="D1872">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1873" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1873">
+        <v>16</v>
+      </c>
+      <c r="D1873">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1874" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1874">
+        <v>17</v>
+      </c>
+      <c r="D1874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1875" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1875">
+        <v>17</v>
+      </c>
+      <c r="D1875">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1876" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1876">
+        <v>17</v>
+      </c>
+      <c r="D1876">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1877" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1877">
+        <v>17</v>
+      </c>
+      <c r="D1877">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1878" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1878">
+        <v>17</v>
+      </c>
+      <c r="D1878">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1879" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1879">
+        <v>17</v>
+      </c>
+      <c r="D1879">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1880" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1880">
+        <v>17</v>
+      </c>
+      <c r="D1880">
+        <v>6</v>
+      </c>
+      <c r="E1880">
+        <v>5.91E-2</v>
+      </c>
+    </row>
+    <row r="1881" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1881">
+        <v>17</v>
+      </c>
+      <c r="D1881">
+        <v>7</v>
+      </c>
+      <c r="E1881">
+        <v>0.74909999999999999</v>
+      </c>
+    </row>
+    <row r="1882" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1882">
+        <v>17</v>
+      </c>
+      <c r="D1882">
+        <v>8</v>
+      </c>
+      <c r="E1882">
+        <v>2.6118999999999999</v>
+      </c>
+    </row>
+    <row r="1883" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1883">
+        <v>17</v>
+      </c>
+      <c r="D1883">
+        <v>9</v>
+      </c>
+      <c r="E1883">
+        <v>5.8643999999999998</v>
+      </c>
+    </row>
+    <row r="1884" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1884">
+        <v>17</v>
+      </c>
+      <c r="D1884">
+        <v>10</v>
+      </c>
+      <c r="E1884">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="1885" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1885">
+        <v>17</v>
+      </c>
+      <c r="D1885">
+        <v>11</v>
+      </c>
+      <c r="E1885">
+        <v>12.132899999999999</v>
+      </c>
+    </row>
+    <row r="1886" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1886">
+        <v>17</v>
+      </c>
+      <c r="D1886">
+        <v>12</v>
+      </c>
+      <c r="E1886">
+        <v>13.098800000000001</v>
+      </c>
+    </row>
+    <row r="1887" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1887">
+        <v>17</v>
+      </c>
+      <c r="D1887">
+        <v>13</v>
+      </c>
+      <c r="E1887">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1888" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1888">
+        <v>17</v>
+      </c>
+      <c r="D1888">
+        <v>14</v>
+      </c>
+      <c r="E1888">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1889" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1889">
+        <v>17</v>
+      </c>
+      <c r="D1889">
+        <v>15</v>
+      </c>
+      <c r="E1889">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1890" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1890">
+        <v>17</v>
+      </c>
+      <c r="D1890">
+        <v>16</v>
+      </c>
+      <c r="E1890">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1891" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1891">
+        <v>17</v>
+      </c>
+      <c r="D1891">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1892" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1892">
+        <v>17</v>
+      </c>
+      <c r="D1892">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1893" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1893">
+        <v>17</v>
+      </c>
+      <c r="D1893">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1894" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1894">
+        <v>17</v>
+      </c>
+      <c r="D1894">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1895" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1895">
+        <v>17</v>
+      </c>
+      <c r="D1895">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1896" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1896">
+        <v>17</v>
+      </c>
+      <c r="D1896">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1897" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1897">
+        <v>17</v>
+      </c>
+      <c r="D1897">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1898" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1898">
+        <v>18</v>
+      </c>
+      <c r="D1898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1899" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1899">
+        <v>18</v>
+      </c>
+      <c r="D1899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1900" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1900">
+        <v>18</v>
+      </c>
+      <c r="D1900">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1901" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1901">
+        <v>18</v>
+      </c>
+      <c r="D1901">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1902" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1902">
+        <v>18</v>
+      </c>
+      <c r="D1902">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1903" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1903">
+        <v>18</v>
+      </c>
+      <c r="D1903">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1904" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1904">
+        <v>18</v>
+      </c>
+      <c r="D1904">
+        <v>6</v>
+      </c>
+      <c r="E1904">
+        <v>5.91E-2</v>
+      </c>
+    </row>
+    <row r="1905" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1905">
+        <v>18</v>
+      </c>
+      <c r="D1905">
+        <v>7</v>
+      </c>
+      <c r="E1905">
+        <v>0.74909999999999999</v>
+      </c>
+    </row>
+    <row r="1906" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1906">
+        <v>18</v>
+      </c>
+      <c r="D1906">
+        <v>8</v>
+      </c>
+      <c r="E1906">
+        <v>2.6118999999999999</v>
+      </c>
+    </row>
+    <row r="1907" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1907">
+        <v>18</v>
+      </c>
+      <c r="D1907">
+        <v>9</v>
+      </c>
+      <c r="E1907">
+        <v>5.8643999999999998</v>
+      </c>
+    </row>
+    <row r="1908" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1908">
+        <v>18</v>
+      </c>
+      <c r="D1908">
+        <v>10</v>
+      </c>
+      <c r="E1908">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="1909" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1909">
+        <v>18</v>
+      </c>
+      <c r="D1909">
+        <v>11</v>
+      </c>
+      <c r="E1909">
+        <v>12.261100000000001</v>
+      </c>
+    </row>
+    <row r="1910" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1910">
+        <v>18</v>
+      </c>
+      <c r="D1910">
+        <v>12</v>
+      </c>
+      <c r="E1910">
+        <v>13.098800000000001</v>
+      </c>
+    </row>
+    <row r="1911" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1911">
+        <v>18</v>
+      </c>
+      <c r="D1911">
+        <v>13</v>
+      </c>
+      <c r="E1911">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1912" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1912">
+        <v>18</v>
+      </c>
+      <c r="D1912">
+        <v>14</v>
+      </c>
+      <c r="E1912">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1913" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1913">
+        <v>18</v>
+      </c>
+      <c r="D1913">
+        <v>15</v>
+      </c>
+      <c r="E1913">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1914" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1914">
+        <v>18</v>
+      </c>
+      <c r="D1914">
+        <v>16</v>
+      </c>
+      <c r="E1914">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1915" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1915">
+        <v>18</v>
+      </c>
+      <c r="D1915">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1916" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1916">
+        <v>18</v>
+      </c>
+      <c r="D1916">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1917" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1917">
+        <v>18</v>
+      </c>
+      <c r="D1917">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1918" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1918">
+        <v>18</v>
+      </c>
+      <c r="D1918">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1919" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1919">
+        <v>18</v>
+      </c>
+      <c r="D1919">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1920" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1920">
+        <v>18</v>
+      </c>
+      <c r="D1920">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1921" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1921">
+        <v>18</v>
+      </c>
+      <c r="D1921">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1922" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1922">
+        <v>18</v>
+      </c>
+      <c r="D1922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1923" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1923">
+        <v>19</v>
+      </c>
+      <c r="D1923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1924" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1924">
+        <v>19</v>
+      </c>
+      <c r="D1924">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1925" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1925">
+        <v>19</v>
+      </c>
+      <c r="D1925">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1926" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1926">
+        <v>19</v>
+      </c>
+      <c r="D1926">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1927" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1927">
+        <v>19</v>
+      </c>
+      <c r="D1927">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1928" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1928">
+        <v>19</v>
+      </c>
+      <c r="D1928">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1929" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1929">
+        <v>19</v>
+      </c>
+      <c r="D1929">
+        <v>6</v>
+      </c>
+      <c r="E1929">
+        <v>5.91E-2</v>
+      </c>
+    </row>
+    <row r="1930" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1930">
+        <v>19</v>
+      </c>
+      <c r="D1930">
+        <v>7</v>
+      </c>
+      <c r="E1930">
+        <v>0.74909999999999999</v>
+      </c>
+    </row>
+    <row r="1931" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1931">
+        <v>19</v>
+      </c>
+      <c r="D1931">
+        <v>8</v>
+      </c>
+      <c r="E1931">
+        <v>2.7991000000000001</v>
+      </c>
+    </row>
+    <row r="1932" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1932">
+        <v>19</v>
+      </c>
+      <c r="D1932">
+        <v>9</v>
+      </c>
+      <c r="E1932">
+        <v>5.8643999999999998</v>
+      </c>
+    </row>
+    <row r="1933" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1933">
+        <v>19</v>
+      </c>
+      <c r="D1933">
+        <v>10</v>
+      </c>
+      <c r="E1933">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="1934" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1934">
+        <v>19</v>
+      </c>
+      <c r="D1934">
+        <v>11</v>
+      </c>
+      <c r="E1934">
+        <v>12.261100000000001</v>
+      </c>
+    </row>
+    <row r="1935" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1935">
+        <v>19</v>
+      </c>
+      <c r="D1935">
+        <v>12</v>
+      </c>
+      <c r="E1935">
+        <v>13.098800000000001</v>
+      </c>
+    </row>
+    <row r="1936" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1936">
+        <v>19</v>
+      </c>
+      <c r="D1936">
+        <v>13</v>
+      </c>
+      <c r="E1936">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1937" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1937">
+        <v>19</v>
+      </c>
+      <c r="D1937">
+        <v>14</v>
+      </c>
+      <c r="E1937">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1938" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1938">
+        <v>19</v>
+      </c>
+      <c r="D1938">
+        <v>15</v>
+      </c>
+      <c r="E1938">
+        <v>5.1448999999999998</v>
+      </c>
+    </row>
+    <row r="1939" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1939">
+        <v>19</v>
+      </c>
+      <c r="D1939">
+        <v>16</v>
+      </c>
+      <c r="E1939">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1940" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1940">
+        <v>19</v>
+      </c>
+      <c r="D1940">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1941" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1941">
+        <v>19</v>
+      </c>
+      <c r="D1941">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1942" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1942">
+        <v>19</v>
+      </c>
+      <c r="D1942">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1943" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1943">
+        <v>19</v>
+      </c>
+      <c r="D1943">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1944" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1944">
+        <v>19</v>
+      </c>
+      <c r="D1944">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1945" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1945">
+        <v>19</v>
+      </c>
+      <c r="D1945">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1946" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1946">
+        <v>19</v>
+      </c>
+      <c r="D1946">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1947" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1947">
+        <v>20</v>
+      </c>
+      <c r="D1947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1948" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1948">
+        <v>20</v>
+      </c>
+      <c r="D1948">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1949" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1949">
+        <v>20</v>
+      </c>
+      <c r="D1949">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1950" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1950">
+        <v>20</v>
+      </c>
+      <c r="D1950">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1951" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1951">
+        <v>20</v>
+      </c>
+      <c r="D1951">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1952" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1952">
+        <v>20</v>
+      </c>
+      <c r="D1952">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1953" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1953">
+        <v>20</v>
+      </c>
+      <c r="D1953">
+        <v>6</v>
+      </c>
+      <c r="E1953">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1954" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1954">
+        <v>20</v>
+      </c>
+      <c r="D1954">
+        <v>7</v>
+      </c>
+      <c r="E1954">
+        <v>0.74909999999999999</v>
+      </c>
+    </row>
+    <row r="1955" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1955">
+        <v>20</v>
+      </c>
+      <c r="D1955">
+        <v>8</v>
+      </c>
+      <c r="E1955">
+        <v>2.7991000000000001</v>
+      </c>
+    </row>
+    <row r="1956" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1956">
+        <v>20</v>
+      </c>
+      <c r="D1956">
+        <v>9</v>
+      </c>
+      <c r="E1956">
+        <v>5.8643999999999998</v>
+      </c>
+    </row>
+    <row r="1957" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1957">
+        <v>20</v>
+      </c>
+      <c r="D1957">
+        <v>10</v>
+      </c>
+      <c r="E1957">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="1958" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1958">
+        <v>20</v>
+      </c>
+      <c r="D1958">
+        <v>11</v>
+      </c>
+      <c r="E1958">
+        <v>12.261100000000001</v>
+      </c>
+    </row>
+    <row r="1959" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1959">
+        <v>20</v>
+      </c>
+      <c r="D1959">
+        <v>12</v>
+      </c>
+      <c r="E1959">
+        <v>13.0693</v>
+      </c>
+    </row>
+    <row r="1960" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1960">
+        <v>20</v>
+      </c>
+      <c r="D1960">
+        <v>13</v>
+      </c>
+      <c r="E1960">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1961" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1961">
+        <v>20</v>
+      </c>
+      <c r="D1961">
+        <v>14</v>
+      </c>
+      <c r="E1961">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1962" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1962">
+        <v>20</v>
+      </c>
+      <c r="D1962">
+        <v>15</v>
+      </c>
+      <c r="E1962">
+        <v>4.9084000000000003</v>
+      </c>
+    </row>
+    <row r="1963" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1963">
+        <v>20</v>
+      </c>
+      <c r="D1963">
+        <v>16</v>
+      </c>
+      <c r="E1963">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1964" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1964">
+        <v>20</v>
+      </c>
+      <c r="D1964">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1965" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1965">
+        <v>20</v>
+      </c>
+      <c r="D1965">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1966" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1966">
+        <v>20</v>
+      </c>
+      <c r="D1966">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1967" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1967">
+        <v>20</v>
+      </c>
+      <c r="D1967">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1968" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1968">
+        <v>20</v>
+      </c>
+      <c r="D1968">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1969" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1969">
+        <v>20</v>
+      </c>
+      <c r="D1969">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1970" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1970">
+        <v>20</v>
+      </c>
+      <c r="D1970">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1971" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1971">
+        <v>21</v>
+      </c>
+      <c r="D1971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1972" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1972">
+        <v>21</v>
+      </c>
+      <c r="D1972">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1973" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1973">
+        <v>21</v>
+      </c>
+      <c r="D1973">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1974" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1974">
+        <v>21</v>
+      </c>
+      <c r="D1974">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1975" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1975">
+        <v>21</v>
+      </c>
+      <c r="D1975">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1976" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1976">
+        <v>21</v>
+      </c>
+      <c r="D1976">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1977" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1977">
+        <v>21</v>
+      </c>
+      <c r="D1977">
+        <v>6</v>
+      </c>
+      <c r="E1977">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1978" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1978">
+        <v>21</v>
+      </c>
+      <c r="D1978">
+        <v>7</v>
+      </c>
+      <c r="E1978">
+        <v>0.74909999999999999</v>
+      </c>
+    </row>
+    <row r="1979" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1979">
+        <v>21</v>
+      </c>
+      <c r="D1979">
+        <v>8</v>
+      </c>
+      <c r="E1979">
+        <v>2.7991000000000001</v>
+      </c>
+    </row>
+    <row r="1980" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1980">
+        <v>21</v>
+      </c>
+      <c r="D1980">
+        <v>9</v>
+      </c>
+      <c r="E1980">
+        <v>5.8643999999999998</v>
+      </c>
+    </row>
+    <row r="1981" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1981">
+        <v>21</v>
+      </c>
+      <c r="D1981">
+        <v>10</v>
+      </c>
+      <c r="E1981">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="1982" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1982">
+        <v>21</v>
+      </c>
+      <c r="D1982">
+        <v>11</v>
+      </c>
+      <c r="E1982">
+        <v>12.261100000000001</v>
+      </c>
+    </row>
+    <row r="1983" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1983">
+        <v>21</v>
+      </c>
+      <c r="D1983">
+        <v>12</v>
+      </c>
+      <c r="E1983">
+        <v>13.0693</v>
+      </c>
+    </row>
+    <row r="1984" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1984">
+        <v>21</v>
+      </c>
+      <c r="D1984">
+        <v>13</v>
+      </c>
+      <c r="E1984">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="1985" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1985">
+        <v>21</v>
+      </c>
+      <c r="D1985">
+        <v>14</v>
+      </c>
+      <c r="E1985">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="1986" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1986">
+        <v>21</v>
+      </c>
+      <c r="D1986">
+        <v>15</v>
+      </c>
+      <c r="E1986">
+        <v>4.9084000000000003</v>
+      </c>
+    </row>
+    <row r="1987" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1987">
+        <v>21</v>
+      </c>
+      <c r="D1987">
+        <v>16</v>
+      </c>
+      <c r="E1987">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="1988" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1988">
+        <v>21</v>
+      </c>
+      <c r="D1988">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1989" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1989">
+        <v>21</v>
+      </c>
+      <c r="D1989">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1990" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1990">
+        <v>21</v>
+      </c>
+      <c r="D1990">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1991" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1991">
+        <v>21</v>
+      </c>
+      <c r="D1991">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1992" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1992">
+        <v>21</v>
+      </c>
+      <c r="D1992">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1993" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1993">
+        <v>21</v>
+      </c>
+      <c r="D1993">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1994" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1994">
+        <v>21</v>
+      </c>
+      <c r="D1994">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1995" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1995">
+        <v>22</v>
+      </c>
+      <c r="D1995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1996" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1996">
+        <v>22</v>
+      </c>
+      <c r="D1996">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1997" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1997">
+        <v>22</v>
+      </c>
+      <c r="D1997">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1998" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1998">
+        <v>22</v>
+      </c>
+      <c r="D1998">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1999" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1999">
+        <v>22</v>
+      </c>
+      <c r="D1999">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2000" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2000">
+        <v>22</v>
+      </c>
+      <c r="D2000">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2001" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2001">
+        <v>22</v>
+      </c>
+      <c r="D2001">
+        <v>6</v>
+      </c>
+      <c r="E2001">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="2002" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2002">
+        <v>22</v>
+      </c>
+      <c r="D2002">
+        <v>7</v>
+      </c>
+      <c r="E2002">
+        <v>0.74909999999999999</v>
+      </c>
+    </row>
+    <row r="2003" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2003">
+        <v>22</v>
+      </c>
+      <c r="D2003">
+        <v>8</v>
+      </c>
+      <c r="E2003">
+        <v>2.7991000000000001</v>
+      </c>
+    </row>
+    <row r="2004" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2004">
+        <v>22</v>
+      </c>
+      <c r="D2004">
+        <v>9</v>
+      </c>
+      <c r="E2004">
+        <v>5.8643999999999998</v>
+      </c>
+    </row>
+    <row r="2005" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2005">
+        <v>22</v>
+      </c>
+      <c r="D2005">
+        <v>10</v>
+      </c>
+      <c r="E2005">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="2006" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2006">
+        <v>22</v>
+      </c>
+      <c r="D2006">
+        <v>11</v>
+      </c>
+      <c r="E2006">
+        <v>12.261100000000001</v>
+      </c>
+    </row>
+    <row r="2007" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2007">
+        <v>22</v>
+      </c>
+      <c r="D2007">
+        <v>12</v>
+      </c>
+      <c r="E2007">
+        <v>13.0693</v>
+      </c>
+    </row>
+    <row r="2008" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2008">
+        <v>22</v>
+      </c>
+      <c r="D2008">
+        <v>13</v>
+      </c>
+      <c r="E2008">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="2009" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2009">
+        <v>22</v>
+      </c>
+      <c r="D2009">
+        <v>14</v>
+      </c>
+      <c r="E2009">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="2010" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2010">
+        <v>22</v>
+      </c>
+      <c r="D2010">
+        <v>15</v>
+      </c>
+      <c r="E2010">
+        <v>4.9084000000000003</v>
+      </c>
+    </row>
+    <row r="2011" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2011">
+        <v>22</v>
+      </c>
+      <c r="D2011">
+        <v>16</v>
+      </c>
+      <c r="E2011">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="2012" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2012">
+        <v>22</v>
+      </c>
+      <c r="D2012">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2013" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2013">
+        <v>22</v>
+      </c>
+      <c r="D2013">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2014" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2014">
+        <v>22</v>
+      </c>
+      <c r="D2014">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2015" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2015">
+        <v>22</v>
+      </c>
+      <c r="D2015">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2016" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2016">
+        <v>22</v>
+      </c>
+      <c r="D2016">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2017" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2017">
+        <v>22</v>
+      </c>
+      <c r="D2017">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2018" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2018">
+        <v>22</v>
+      </c>
+      <c r="D2018">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2019" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2019">
+        <v>23</v>
+      </c>
+      <c r="D2019">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2020" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2020">
+        <v>23</v>
+      </c>
+      <c r="D2020">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2021" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2021">
+        <v>23</v>
+      </c>
+      <c r="D2021">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2022" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2022">
+        <v>23</v>
+      </c>
+      <c r="D2022">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2023" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2023">
+        <v>23</v>
+      </c>
+      <c r="D2023">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2024" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2024">
+        <v>23</v>
+      </c>
+      <c r="D2024">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2025" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2025">
+        <v>23</v>
+      </c>
+      <c r="D2025">
+        <v>6</v>
+      </c>
+      <c r="E2025">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="2026" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2026">
+        <v>23</v>
+      </c>
+      <c r="D2026">
+        <v>7</v>
+      </c>
+      <c r="E2026">
+        <v>0.74909999999999999</v>
+      </c>
+    </row>
+    <row r="2027" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2027">
+        <v>23</v>
+      </c>
+      <c r="D2027">
+        <v>8</v>
+      </c>
+      <c r="E2027">
+        <v>2.7991000000000001</v>
+      </c>
+    </row>
+    <row r="2028" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2028">
+        <v>23</v>
+      </c>
+      <c r="D2028">
+        <v>9</v>
+      </c>
+      <c r="E2028">
+        <v>5.8643999999999998</v>
+      </c>
+    </row>
+    <row r="2029" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2029">
+        <v>23</v>
+      </c>
+      <c r="D2029">
+        <v>10</v>
+      </c>
+      <c r="E2029">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="2030" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2030">
+        <v>23</v>
+      </c>
+      <c r="D2030">
+        <v>11</v>
+      </c>
+      <c r="E2030">
+        <v>12.261100000000001</v>
+      </c>
+    </row>
+    <row r="2031" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2031">
+        <v>23</v>
+      </c>
+      <c r="D2031">
+        <v>12</v>
+      </c>
+      <c r="E2031">
+        <v>13.0693</v>
+      </c>
+    </row>
+    <row r="2032" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2032">
+        <v>23</v>
+      </c>
+      <c r="D2032">
+        <v>13</v>
+      </c>
+      <c r="E2032">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="2033" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2033">
+        <v>23</v>
+      </c>
+      <c r="D2033">
+        <v>14</v>
+      </c>
+      <c r="E2033">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="2034" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2034">
+        <v>23</v>
+      </c>
+      <c r="D2034">
+        <v>15</v>
+      </c>
+      <c r="E2034">
+        <v>4.9084000000000003</v>
+      </c>
+    </row>
+    <row r="2035" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2035">
+        <v>23</v>
+      </c>
+      <c r="D2035">
+        <v>16</v>
+      </c>
+      <c r="E2035">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="2036" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2036">
+        <v>23</v>
+      </c>
+      <c r="D2036">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2037" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2037">
+        <v>23</v>
+      </c>
+      <c r="D2037">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2038" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2038">
+        <v>23</v>
+      </c>
+      <c r="D2038">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2039" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2039">
+        <v>23</v>
+      </c>
+      <c r="D2039">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2040" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2040">
+        <v>23</v>
+      </c>
+      <c r="D2040">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2041" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2041">
+        <v>23</v>
+      </c>
+      <c r="D2041">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2042" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2042">
+        <v>23</v>
+      </c>
+      <c r="D2042">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2043" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2043">
+        <v>24</v>
+      </c>
+      <c r="D2043">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2044" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2044">
+        <v>24</v>
+      </c>
+      <c r="D2044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2045" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2045">
+        <v>24</v>
+      </c>
+      <c r="D2045">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2046" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2046">
+        <v>24</v>
+      </c>
+      <c r="D2046">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2047" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2047">
+        <v>24</v>
+      </c>
+      <c r="D2047">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2048" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2048">
+        <v>24</v>
+      </c>
+      <c r="D2048">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2049" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2049">
+        <v>24</v>
+      </c>
+      <c r="D2049">
+        <v>6</v>
+      </c>
+      <c r="E2049">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="2050" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2050">
+        <v>24</v>
+      </c>
+      <c r="D2050">
+        <v>7</v>
+      </c>
+      <c r="E2050">
+        <v>0.74909999999999999</v>
+      </c>
+    </row>
+    <row r="2051" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2051">
+        <v>24</v>
+      </c>
+      <c r="D2051">
+        <v>8</v>
+      </c>
+      <c r="E2051">
+        <v>2.7991000000000001</v>
+      </c>
+    </row>
+    <row r="2052" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2052">
+        <v>24</v>
+      </c>
+      <c r="D2052">
+        <v>9</v>
+      </c>
+      <c r="E2052">
+        <v>6.1108000000000002</v>
+      </c>
+    </row>
+    <row r="2053" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2053">
+        <v>24</v>
+      </c>
+      <c r="D2053">
+        <v>10</v>
+      </c>
+      <c r="E2053">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="2054" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2054">
+        <v>24</v>
+      </c>
+      <c r="D2054">
+        <v>11</v>
+      </c>
+      <c r="E2054">
+        <v>12.261100000000001</v>
+      </c>
+    </row>
+    <row r="2055" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2055">
+        <v>24</v>
+      </c>
+      <c r="D2055">
+        <v>12</v>
+      </c>
+      <c r="E2055">
+        <v>13.0693</v>
+      </c>
+    </row>
+    <row r="2056" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2056">
+        <v>24</v>
+      </c>
+      <c r="D2056">
+        <v>13</v>
+      </c>
+      <c r="E2056">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="2057" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2057">
+        <v>24</v>
+      </c>
+      <c r="D2057">
+        <v>14</v>
+      </c>
+      <c r="E2057">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="2058" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2058">
+        <v>24</v>
+      </c>
+      <c r="D2058">
+        <v>15</v>
+      </c>
+      <c r="E2058">
+        <v>4.9084000000000003</v>
+      </c>
+    </row>
+    <row r="2059" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2059">
+        <v>24</v>
+      </c>
+      <c r="D2059">
+        <v>16</v>
+      </c>
+      <c r="E2059">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="2060" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2060">
+        <v>24</v>
+      </c>
+      <c r="D2060">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2061" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2061">
+        <v>24</v>
+      </c>
+      <c r="D2061">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2062" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2062">
+        <v>24</v>
+      </c>
+      <c r="D2062">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2063" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2063">
+        <v>24</v>
+      </c>
+      <c r="D2063">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2064" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2064">
+        <v>24</v>
+      </c>
+      <c r="D2064">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2065" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2065">
+        <v>24</v>
+      </c>
+      <c r="D2065">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2066" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2066">
+        <v>24</v>
+      </c>
+      <c r="D2066">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2067" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2067">
+        <v>25</v>
+      </c>
+      <c r="D2067">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2068" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2068">
+        <v>25</v>
+      </c>
+      <c r="D2068">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2069" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2069">
+        <v>25</v>
+      </c>
+      <c r="D2069">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2070" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2070">
+        <v>25</v>
+      </c>
+      <c r="D2070">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2071" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2071">
+        <v>25</v>
+      </c>
+      <c r="D2071">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2072" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2072">
+        <v>25</v>
+      </c>
+      <c r="D2072">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2073" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2073">
+        <v>25</v>
+      </c>
+      <c r="D2073">
+        <v>6</v>
+      </c>
+      <c r="E2073">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="2074" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2074">
+        <v>25</v>
+      </c>
+      <c r="D2074">
+        <v>7</v>
+      </c>
+      <c r="E2074">
+        <v>0.74909999999999999</v>
+      </c>
+    </row>
+    <row r="2075" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2075">
+        <v>25</v>
+      </c>
+      <c r="D2075">
+        <v>8</v>
+      </c>
+      <c r="E2075">
+        <v>2.7991000000000001</v>
+      </c>
+    </row>
+    <row r="2076" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2076">
+        <v>25</v>
+      </c>
+      <c r="D2076">
+        <v>9</v>
+      </c>
+      <c r="E2076">
+        <v>6.1108000000000002</v>
+      </c>
+    </row>
+    <row r="2077" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2077">
+        <v>25</v>
+      </c>
+      <c r="D2077">
+        <v>10</v>
+      </c>
+      <c r="E2077">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="2078" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2078">
+        <v>25</v>
+      </c>
+      <c r="D2078">
+        <v>11</v>
+      </c>
+      <c r="E2078">
+        <v>12.261100000000001</v>
+      </c>
+    </row>
+    <row r="2079" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2079">
+        <v>25</v>
+      </c>
+      <c r="D2079">
+        <v>12</v>
+      </c>
+      <c r="E2079">
+        <v>13.0397</v>
+      </c>
+    </row>
+    <row r="2080" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2080">
+        <v>25</v>
+      </c>
+      <c r="D2080">
+        <v>13</v>
+      </c>
+      <c r="E2080">
+        <v>11.679500000000001</v>
+      </c>
+    </row>
+    <row r="2081" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2081">
+        <v>25</v>
+      </c>
+      <c r="D2081">
+        <v>14</v>
+      </c>
+      <c r="E2081">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="2082" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2082">
+        <v>25</v>
+      </c>
+      <c r="D2082">
+        <v>15</v>
+      </c>
+      <c r="E2082">
+        <v>4.9084000000000003</v>
+      </c>
+    </row>
+    <row r="2083" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2083">
+        <v>25</v>
+      </c>
+      <c r="D2083">
+        <v>16</v>
+      </c>
+      <c r="E2083">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="2084" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2084">
+        <v>25</v>
+      </c>
+      <c r="D2084">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2085" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2085">
+        <v>25</v>
+      </c>
+      <c r="D2085">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2086" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2086">
+        <v>25</v>
+      </c>
+      <c r="D2086">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2087" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2087">
+        <v>25</v>
+      </c>
+      <c r="D2087">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2088" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2088">
+        <v>25</v>
+      </c>
+      <c r="D2088">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2089" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2089">
+        <v>25</v>
+      </c>
+      <c r="D2089">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2090" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2090">
+        <v>25</v>
+      </c>
+      <c r="D2090">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2091" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2091">
+        <v>26</v>
+      </c>
+      <c r="D2091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2092" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2092">
+        <v>26</v>
+      </c>
+      <c r="D2092">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2093" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2093">
+        <v>26</v>
+      </c>
+      <c r="D2093">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2094" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2094">
+        <v>26</v>
+      </c>
+      <c r="D2094">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2095" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2095">
+        <v>26</v>
+      </c>
+      <c r="D2095">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2096" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2096">
+        <v>26</v>
+      </c>
+      <c r="D2096">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2097" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2097">
+        <v>26</v>
+      </c>
+      <c r="D2097">
+        <v>6</v>
+      </c>
+      <c r="E2097">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="2098" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2098">
+        <v>26</v>
+      </c>
+      <c r="D2098">
+        <v>7</v>
+      </c>
+      <c r="E2098">
+        <v>0.83779999999999999</v>
+      </c>
+    </row>
+    <row r="2099" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2099">
+        <v>26</v>
+      </c>
+      <c r="D2099">
+        <v>8</v>
+      </c>
+      <c r="E2099">
+        <v>2.7991000000000001</v>
+      </c>
+    </row>
+    <row r="2100" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2100">
+        <v>26</v>
+      </c>
+      <c r="D2100">
+        <v>9</v>
+      </c>
+      <c r="E2100">
+        <v>6.1108000000000002</v>
+      </c>
+    </row>
+    <row r="2101" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2101">
+        <v>26</v>
+      </c>
+      <c r="D2101">
+        <v>10</v>
+      </c>
+      <c r="E2101">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="2102" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2102">
+        <v>26</v>
+      </c>
+      <c r="D2102">
+        <v>11</v>
+      </c>
+      <c r="E2102">
+        <v>12.261100000000001</v>
+      </c>
+    </row>
+    <row r="2103" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2103">
+        <v>26</v>
+      </c>
+      <c r="D2103">
+        <v>12</v>
+      </c>
+      <c r="E2103">
+        <v>13.0397</v>
+      </c>
+    </row>
+    <row r="2104" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2104">
+        <v>26</v>
+      </c>
+      <c r="D2104">
+        <v>13</v>
+      </c>
+      <c r="E2104">
+        <v>11.5219</v>
+      </c>
+    </row>
+    <row r="2105" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2105">
+        <v>26</v>
+      </c>
+      <c r="D2105">
+        <v>14</v>
+      </c>
+      <c r="E2105">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="2106" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2106">
+        <v>26</v>
+      </c>
+      <c r="D2106">
+        <v>15</v>
+      </c>
+      <c r="E2106">
+        <v>4.9084000000000003</v>
+      </c>
+    </row>
+    <row r="2107" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2107">
+        <v>26</v>
+      </c>
+      <c r="D2107">
+        <v>16</v>
+      </c>
+      <c r="E2107">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="2108" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2108">
+        <v>26</v>
+      </c>
+      <c r="D2108">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2109" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2109">
+        <v>26</v>
+      </c>
+      <c r="D2109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2110" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2110">
+        <v>26</v>
+      </c>
+      <c r="D2110">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2111" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2111">
+        <v>26</v>
+      </c>
+      <c r="D2111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2112" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2112">
+        <v>26</v>
+      </c>
+      <c r="D2112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2113" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2113">
+        <v>26</v>
+      </c>
+      <c r="D2113">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2114" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2114">
+        <v>26</v>
+      </c>
+      <c r="D2114">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2115" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2115">
+        <v>27</v>
+      </c>
+      <c r="D2115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2116" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2116">
+        <v>27</v>
+      </c>
+      <c r="D2116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2117" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2117">
+        <v>27</v>
+      </c>
+      <c r="D2117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2118" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2118">
+        <v>27</v>
+      </c>
+      <c r="D2118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2119" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2119">
+        <v>27</v>
+      </c>
+      <c r="D2119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2120" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2120">
+        <v>27</v>
+      </c>
+      <c r="D2120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2121" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2121">
+        <v>27</v>
+      </c>
+      <c r="D2121">
+        <v>6</v>
+      </c>
+      <c r="E2121">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="2122" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2122">
+        <v>27</v>
+      </c>
+      <c r="D2122">
+        <v>7</v>
+      </c>
+      <c r="E2122">
+        <v>0.83779999999999999</v>
+      </c>
+    </row>
+    <row r="2123" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2123">
+        <v>27</v>
+      </c>
+      <c r="D2123">
+        <v>8</v>
+      </c>
+      <c r="E2123">
+        <v>2.7991000000000001</v>
+      </c>
+    </row>
+    <row r="2124" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2124">
+        <v>27</v>
+      </c>
+      <c r="D2124">
+        <v>9</v>
+      </c>
+      <c r="E2124">
+        <v>6.1108000000000002</v>
+      </c>
+    </row>
+    <row r="2125" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2125">
+        <v>27</v>
+      </c>
+      <c r="D2125">
+        <v>10</v>
+      </c>
+      <c r="E2125">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="2126" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2126">
+        <v>27</v>
+      </c>
+      <c r="D2126">
+        <v>11</v>
+      </c>
+      <c r="E2126">
+        <v>12.261100000000001</v>
+      </c>
+    </row>
+    <row r="2127" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2127">
+        <v>27</v>
+      </c>
+      <c r="D2127">
+        <v>12</v>
+      </c>
+      <c r="E2127">
+        <v>13.0397</v>
+      </c>
+    </row>
+    <row r="2128" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2128">
+        <v>27</v>
+      </c>
+      <c r="D2128">
+        <v>13</v>
+      </c>
+      <c r="E2128">
+        <v>11.5219</v>
+      </c>
+    </row>
+    <row r="2129" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2129">
+        <v>27</v>
+      </c>
+      <c r="D2129">
+        <v>14</v>
+      </c>
+      <c r="E2129">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="2130" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2130">
+        <v>27</v>
+      </c>
+      <c r="D2130">
+        <v>15</v>
+      </c>
+      <c r="E2130">
+        <v>4.9084000000000003</v>
+      </c>
+    </row>
+    <row r="2131" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2131">
+        <v>27</v>
+      </c>
+      <c r="D2131">
+        <v>16</v>
+      </c>
+      <c r="E2131">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="2132" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2132">
+        <v>27</v>
+      </c>
+      <c r="D2132">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2133" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2133">
+        <v>27</v>
+      </c>
+      <c r="D2133">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2134" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2134">
+        <v>27</v>
+      </c>
+      <c r="D2134">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2135" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2135">
+        <v>27</v>
+      </c>
+      <c r="D2135">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2136" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2136">
+        <v>27</v>
+      </c>
+      <c r="D2136">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2137" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2137">
+        <v>27</v>
+      </c>
+      <c r="D2137">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2138" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2138">
+        <v>27</v>
+      </c>
+      <c r="D2138">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2139" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2139">
+        <v>28</v>
+      </c>
+      <c r="D2139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2140" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2140">
+        <v>28</v>
+      </c>
+      <c r="D2140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2141" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2141">
+        <v>28</v>
+      </c>
+      <c r="D2141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2142" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2142">
+        <v>28</v>
+      </c>
+      <c r="D2142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2143" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2143">
+        <v>28</v>
+      </c>
+      <c r="D2143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2144" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2144">
+        <v>28</v>
+      </c>
+      <c r="D2144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2145" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2145">
+        <v>28</v>
+      </c>
+      <c r="D2145">
+        <v>6</v>
+      </c>
+      <c r="E2145">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="2146" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2146">
+        <v>28</v>
+      </c>
+      <c r="D2146">
+        <v>7</v>
+      </c>
+      <c r="E2146">
+        <v>0.83779999999999999</v>
+      </c>
+    </row>
+    <row r="2147" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2147">
+        <v>28</v>
+      </c>
+      <c r="D2147">
+        <v>8</v>
+      </c>
+      <c r="E2147">
+        <v>2.7991000000000001</v>
+      </c>
+    </row>
+    <row r="2148" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2148">
+        <v>28</v>
+      </c>
+      <c r="D2148">
+        <v>9</v>
+      </c>
+      <c r="E2148">
+        <v>6.1108000000000002</v>
+      </c>
+    </row>
+    <row r="2149" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2149">
+        <v>28</v>
+      </c>
+      <c r="D2149">
+        <v>10</v>
+      </c>
+      <c r="E2149">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="2150" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2150">
+        <v>28</v>
+      </c>
+      <c r="D2150">
+        <v>11</v>
+      </c>
+      <c r="E2150">
+        <v>12.261100000000001</v>
+      </c>
+    </row>
+    <row r="2151" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2151">
+        <v>28</v>
+      </c>
+      <c r="D2151">
+        <v>12</v>
+      </c>
+      <c r="E2151">
+        <v>13.0397</v>
+      </c>
+    </row>
+    <row r="2152" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2152">
+        <v>28</v>
+      </c>
+      <c r="D2152">
+        <v>13</v>
+      </c>
+      <c r="E2152">
+        <v>11.5219</v>
+      </c>
+    </row>
+    <row r="2153" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2153">
+        <v>28</v>
+      </c>
+      <c r="D2153">
+        <v>14</v>
+      </c>
+      <c r="E2153">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="2154" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2154">
+        <v>28</v>
+      </c>
+      <c r="D2154">
+        <v>15</v>
+      </c>
+      <c r="E2154">
+        <v>4.9084000000000003</v>
+      </c>
+    </row>
+    <row r="2155" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2155">
+        <v>28</v>
+      </c>
+      <c r="D2155">
+        <v>16</v>
+      </c>
+      <c r="E2155">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="2156" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2156">
+        <v>28</v>
+      </c>
+      <c r="D2156">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2157" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2157">
+        <v>28</v>
+      </c>
+      <c r="D2157">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2158" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2158">
+        <v>28</v>
+      </c>
+      <c r="D2158">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2159" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2159">
+        <v>28</v>
+      </c>
+      <c r="D2159">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2160" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2160">
+        <v>28</v>
+      </c>
+      <c r="D2160">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2161" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2161">
+        <v>28</v>
+      </c>
+      <c r="D2161">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2162" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2162">
+        <v>28</v>
+      </c>
+      <c r="D2162">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2163" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2163">
+        <v>29</v>
+      </c>
+      <c r="D2163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2164" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2164">
+        <v>29</v>
+      </c>
+      <c r="D2164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2165" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2165">
+        <v>29</v>
+      </c>
+      <c r="D2165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2166" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2166">
+        <v>29</v>
+      </c>
+      <c r="D2166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2167" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2167">
+        <v>29</v>
+      </c>
+      <c r="D2167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2168" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2168">
+        <v>29</v>
+      </c>
+      <c r="D2168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2169" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2169">
+        <v>29</v>
+      </c>
+      <c r="D2169">
+        <v>6</v>
+      </c>
+      <c r="E2169" s="1">
+        <v>45411</v>
+      </c>
+    </row>
+    <row r="2170" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2170">
+        <v>29</v>
+      </c>
+      <c r="D2170">
+        <v>7</v>
+      </c>
+      <c r="E2170">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="2171" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2171">
+        <v>29</v>
+      </c>
+      <c r="D2171">
+        <v>8</v>
+      </c>
+      <c r="E2171">
+        <v>0.83779999999999999</v>
+      </c>
+    </row>
+    <row r="2172" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2172">
+        <v>29</v>
+      </c>
+      <c r="D2172">
+        <v>9</v>
+      </c>
+      <c r="E2172">
+        <v>2.7991000000000001</v>
+      </c>
+    </row>
+    <row r="2173" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2173">
+        <v>29</v>
+      </c>
+      <c r="D2173">
+        <v>10</v>
+      </c>
+      <c r="E2173">
+        <v>6.1108000000000002</v>
+      </c>
+    </row>
+    <row r="2174" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2174">
+        <v>29</v>
+      </c>
+      <c r="D2174">
+        <v>11</v>
+      </c>
+      <c r="E2174">
+        <v>9.5211000000000006</v>
+      </c>
+    </row>
+    <row r="2175" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2175">
+        <v>29</v>
+      </c>
+      <c r="D2175">
+        <v>12</v>
+      </c>
+      <c r="E2175">
+        <v>12.261100000000001</v>
+      </c>
+    </row>
+    <row r="2176" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C2176">
+        <v>29</v>
+      </c>
+      <c r="D2176">
+        <v>13</v>
+      </c>
+      <c r="E2176">
+        <v>12.990399999999999</v>
+      </c>
+    </row>
+    <row r="2177" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2177">
+        <v>29</v>
+      </c>
+      <c r="D2177">
+        <v>14</v>
+      </c>
+      <c r="E2177">
+        <v>11.5219</v>
+      </c>
+    </row>
+    <row r="2178" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2178">
+        <v>29</v>
+      </c>
+      <c r="D2178">
+        <v>15</v>
+      </c>
+      <c r="E2178">
+        <v>8.5748999999999995</v>
+      </c>
+    </row>
+    <row r="2179" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2179">
+        <v>29</v>
+      </c>
+      <c r="D2179">
+        <v>16</v>
+      </c>
+      <c r="E2179">
+        <v>4.9084000000000003</v>
+      </c>
+    </row>
+    <row r="2180" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2180">
+        <v>29</v>
+      </c>
+      <c r="D2180">
+        <v>17</v>
+      </c>
+      <c r="E2180">
+        <v>2.1092</v>
+      </c>
+    </row>
+    <row r="2181" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2181">
+        <v>29</v>
+      </c>
+      <c r="D2181">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2182" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2182">
+        <v>29</v>
+      </c>
+      <c r="D2182">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2183" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2183">
+        <v>29</v>
+      </c>
+      <c r="D2183">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2184" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2184">
+        <v>29</v>
+      </c>
+      <c r="D2184">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2185" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2185">
+        <v>29</v>
+      </c>
+      <c r="D2185">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2186" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2186">
+        <v>29</v>
+      </c>
+      <c r="D2186">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2187" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2187">
+        <v>30</v>
+      </c>
+      <c r="D2187">
+        <v>0</v>
+      </c>
+      <c r="E2187">
+        <v>0</v>
+      </c>
+      <c r="F2187">
+        <v>29.44</v>
+      </c>
+      <c r="G2187">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2188" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2188">
+        <v>30</v>
+      </c>
+      <c r="D2188">
+        <v>1</v>
+      </c>
+      <c r="E2188">
+        <v>0</v>
+      </c>
+      <c r="F2188">
+        <v>28.97</v>
+      </c>
+      <c r="G2188">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2189" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2189">
+        <v>30</v>
+      </c>
+      <c r="D2189">
+        <v>2</v>
+      </c>
+      <c r="E2189">
+        <v>0</v>
+      </c>
+      <c r="F2189">
+        <v>28.89</v>
+      </c>
+      <c r="G2189">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2190" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2190">
+        <v>30</v>
+      </c>
+      <c r="D2190">
+        <v>3</v>
+      </c>
+      <c r="E2190">
+        <v>0</v>
+      </c>
+      <c r="F2190">
+        <v>28.42</v>
+      </c>
+      <c r="G2190">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2191" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2191">
+        <v>30</v>
+      </c>
+      <c r="D2191">
+        <v>4</v>
+      </c>
+      <c r="E2191">
+        <v>0</v>
+      </c>
+      <c r="F2191">
+        <v>28.17</v>
+      </c>
+      <c r="G2191">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2192" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2192">
+        <v>30</v>
+      </c>
+      <c r="D2192">
+        <v>5</v>
+      </c>
+      <c r="E2192">
+        <v>0</v>
+      </c>
+      <c r="F2192">
+        <v>28.51</v>
+      </c>
+      <c r="G2192">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2193" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2193">
+        <v>30</v>
+      </c>
+      <c r="D2193">
+        <v>6</v>
+      </c>
+      <c r="E2193">
+        <v>1</v>
+      </c>
+      <c r="F2193">
+        <v>30.05</v>
+      </c>
+      <c r="G2193">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2194" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2194">
+        <v>30</v>
+      </c>
+      <c r="D2194">
+        <v>7</v>
+      </c>
+      <c r="E2194">
+        <v>3</v>
+      </c>
+      <c r="F2194">
+        <v>31.06</v>
+      </c>
+      <c r="G2194">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2195" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2195">
+        <v>30</v>
+      </c>
+      <c r="D2195">
+        <v>8</v>
+      </c>
+      <c r="E2195">
+        <v>5</v>
+      </c>
+      <c r="F2195">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="G2195">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2196" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2196">
+        <v>30</v>
+      </c>
+      <c r="D2196">
+        <v>9</v>
+      </c>
+      <c r="E2196">
+        <v>7</v>
+      </c>
+      <c r="F2196">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="G2196">
+        <v>56.999999999999993</v>
+      </c>
+    </row>
+    <row r="2197" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2197">
+        <v>30</v>
+      </c>
+      <c r="D2197">
+        <v>10</v>
+      </c>
+      <c r="E2197">
+        <v>9</v>
+      </c>
+      <c r="F2197">
+        <v>35.68</v>
+      </c>
+      <c r="G2197">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2198" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2198">
+        <v>30</v>
+      </c>
+      <c r="D2198">
+        <v>11</v>
+      </c>
+      <c r="E2198">
+        <v>9</v>
+      </c>
+      <c r="F2198">
+        <v>36.04</v>
+      </c>
+      <c r="G2198">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2199" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2199">
+        <v>30</v>
+      </c>
+      <c r="D2199">
+        <v>12</v>
+      </c>
+      <c r="E2199">
+        <v>8</v>
+      </c>
+      <c r="F2199">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="G2199">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2200" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2200">
+        <v>30</v>
+      </c>
+      <c r="D2200">
+        <v>13</v>
+      </c>
+      <c r="E2200">
+        <v>6</v>
+      </c>
+      <c r="F2200">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="G2200">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2201" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2201">
+        <v>30</v>
+      </c>
+      <c r="D2201">
+        <v>14</v>
+      </c>
+      <c r="E2201">
+        <v>4</v>
+      </c>
+      <c r="F2201">
+        <v>37</v>
+      </c>
+      <c r="G2201">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2202" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2202">
+        <v>30</v>
+      </c>
+      <c r="D2202">
+        <v>15</v>
+      </c>
+      <c r="E2202">
+        <v>2</v>
+      </c>
+      <c r="F2202">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="G2202">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2203" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2203">
+        <v>30</v>
+      </c>
+      <c r="D2203">
+        <v>16</v>
+      </c>
+      <c r="E2203">
+        <v>1</v>
+      </c>
+      <c r="F2203">
+        <v>34.47</v>
+      </c>
+      <c r="G2203">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2204" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2204">
+        <v>30</v>
+      </c>
+      <c r="D2204">
+        <v>17</v>
+      </c>
+      <c r="E2204">
+        <v>0</v>
+      </c>
+      <c r="F2204">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="G2204">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2205" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2205">
+        <v>30</v>
+      </c>
+      <c r="D2205">
+        <v>18</v>
+      </c>
+      <c r="E2205">
+        <v>0</v>
+      </c>
+      <c r="F2205">
+        <v>31.16</v>
+      </c>
+      <c r="G2205">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2206" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2206">
+        <v>30</v>
+      </c>
+      <c r="D2206">
+        <v>19</v>
+      </c>
+      <c r="E2206">
+        <v>0</v>
+      </c>
+      <c r="F2206">
+        <v>30.6</v>
+      </c>
+      <c r="G2206">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2207" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2207">
+        <v>30</v>
+      </c>
+      <c r="D2207">
+        <v>20</v>
+      </c>
+      <c r="E2207">
+        <v>0</v>
+      </c>
+      <c r="F2207">
+        <v>30.28</v>
+      </c>
+      <c r="G2207">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2208" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C2208">
+        <v>30</v>
+      </c>
+      <c r="D2208">
+        <v>21</v>
+      </c>
+      <c r="E2208">
+        <v>0</v>
+      </c>
+      <c r="F2208">
+        <v>29.94</v>
+      </c>
+      <c r="G2208">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2209" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C2209">
+        <v>30</v>
+      </c>
+      <c r="D2209">
+        <v>22</v>
+      </c>
+      <c r="E2209">
+        <v>0</v>
+      </c>
+      <c r="F2209">
+        <v>29.82</v>
+      </c>
+      <c r="G2209">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2210" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C2210">
+        <v>30</v>
+      </c>
+      <c r="D2210">
+        <v>23</v>
+      </c>
+      <c r="E2210">
+        <v>0</v>
+      </c>
+      <c r="F2210">
+        <v>29.44</v>
+      </c>
+      <c r="G2210">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2211" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2211">
+        <v>5</v>
+      </c>
+      <c r="C2211">
+        <v>1</v>
+      </c>
+      <c r="D2211">
+        <v>0</v>
+      </c>
+      <c r="E2211">
+        <v>0</v>
+      </c>
+      <c r="F2211">
+        <v>29.26</v>
+      </c>
+      <c r="G2211">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2212" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2212">
+        <v>5</v>
+      </c>
+      <c r="C2212">
+        <v>1</v>
+      </c>
+      <c r="D2212">
+        <v>1</v>
+      </c>
+      <c r="E2212">
+        <v>0</v>
+      </c>
+      <c r="F2212">
+        <v>29.02</v>
+      </c>
+      <c r="G2212">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2213" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2213">
+        <v>5</v>
+      </c>
+      <c r="C2213">
+        <v>1</v>
+      </c>
+      <c r="D2213">
+        <v>2</v>
+      </c>
+      <c r="E2213">
+        <v>0</v>
+      </c>
+      <c r="F2213">
+        <v>29</v>
+      </c>
+      <c r="G2213">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2214" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2214">
+        <v>5</v>
+      </c>
+      <c r="C2214">
+        <v>1</v>
+      </c>
+      <c r="D2214">
+        <v>3</v>
+      </c>
+      <c r="E2214">
+        <v>0</v>
+      </c>
+      <c r="F2214">
+        <v>28.85</v>
+      </c>
+      <c r="G2214">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2215" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2215">
+        <v>5</v>
+      </c>
+      <c r="C2215">
+        <v>1</v>
+      </c>
+      <c r="D2215">
+        <v>4</v>
+      </c>
+      <c r="E2215">
+        <v>0</v>
+      </c>
+      <c r="F2215">
+        <v>28.79</v>
+      </c>
+      <c r="G2215">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2216" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2216">
+        <v>5</v>
+      </c>
+      <c r="C2216">
+        <v>1</v>
+      </c>
+      <c r="D2216">
+        <v>5</v>
+      </c>
+      <c r="E2216">
+        <v>0</v>
+      </c>
+      <c r="F2216">
+        <v>28.33</v>
+      </c>
+      <c r="G2216">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2217" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2217">
+        <v>5</v>
+      </c>
+      <c r="C2217">
+        <v>1</v>
+      </c>
+      <c r="D2217">
+        <v>6</v>
+      </c>
+      <c r="E2217">
+        <v>1</v>
+      </c>
+      <c r="F2217">
+        <v>29.55</v>
+      </c>
+      <c r="G2217">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2218" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2218">
+        <v>5</v>
+      </c>
+      <c r="C2218">
+        <v>1</v>
+      </c>
+      <c r="D2218">
+        <v>7</v>
+      </c>
+      <c r="E2218">
+        <v>3</v>
+      </c>
+      <c r="F2218">
+        <v>30.76</v>
+      </c>
+      <c r="G2218">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2219" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2219">
+        <v>5</v>
+      </c>
+      <c r="C2219">
+        <v>1</v>
+      </c>
+      <c r="D2219">
+        <v>8</v>
+      </c>
+      <c r="E2219">
+        <v>4</v>
+      </c>
+      <c r="F2219">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="G2219">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2220" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2220">
+        <v>5</v>
+      </c>
+      <c r="C2220">
+        <v>1</v>
+      </c>
+      <c r="D2220">
+        <v>9</v>
+      </c>
+      <c r="E2220">
+        <v>6</v>
+      </c>
+      <c r="F2220">
+        <v>33.89</v>
+      </c>
+      <c r="G2220">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2221" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2221">
+        <v>5</v>
+      </c>
+      <c r="C2221">
+        <v>1</v>
+      </c>
+      <c r="D2221">
+        <v>10</v>
+      </c>
+      <c r="E2221">
+        <v>6</v>
+      </c>
+      <c r="F2221">
+        <v>35.4</v>
+      </c>
+      <c r="G2221">
+        <v>55.000000000000007</v>
+      </c>
+    </row>
+    <row r="2222" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2222">
+        <v>5</v>
+      </c>
+      <c r="C2222">
+        <v>1</v>
+      </c>
+      <c r="D2222">
+        <v>11</v>
+      </c>
+      <c r="E2222">
+        <v>6</v>
+      </c>
+      <c r="F2222">
+        <v>36.01</v>
+      </c>
+      <c r="G2222">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2223" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2223">
+        <v>5</v>
+      </c>
+      <c r="C2223">
+        <v>1</v>
+      </c>
+      <c r="D2223">
+        <v>12</v>
+      </c>
+      <c r="E2223">
+        <v>6</v>
+      </c>
+      <c r="F2223">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="G2223">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2224" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2224">
+        <v>5</v>
+      </c>
+      <c r="C2224">
+        <v>1</v>
+      </c>
+      <c r="D2224">
+        <v>13</v>
+      </c>
+      <c r="E2224">
+        <v>5</v>
+      </c>
+      <c r="F2224">
+        <v>36.46</v>
+      </c>
+      <c r="G2224">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2225" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2225">
+        <v>5</v>
+      </c>
+      <c r="C2225">
+        <v>1</v>
+      </c>
+      <c r="D2225">
+        <v>14</v>
+      </c>
+      <c r="E2225">
+        <v>4</v>
+      </c>
+      <c r="F2225">
+        <v>36.03</v>
+      </c>
+      <c r="G2225">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2226" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2226">
+        <v>5</v>
+      </c>
+      <c r="C2226">
+        <v>1</v>
+      </c>
+      <c r="D2226">
+        <v>15</v>
+      </c>
+      <c r="E2226">
+        <v>2</v>
+      </c>
+      <c r="F2226">
+        <v>35.11</v>
+      </c>
+      <c r="G2226">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2227" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2227">
+        <v>5</v>
+      </c>
+      <c r="C2227">
+        <v>1</v>
+      </c>
+      <c r="D2227">
+        <v>16</v>
+      </c>
+      <c r="E2227">
+        <v>0</v>
+      </c>
+      <c r="F2227">
+        <v>33.83</v>
+      </c>
+      <c r="G2227">
+        <v>57.999999999999993</v>
+      </c>
+    </row>
+    <row r="2228" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2228">
+        <v>5</v>
+      </c>
+      <c r="C2228">
+        <v>1</v>
+      </c>
+      <c r="D2228">
+        <v>17</v>
+      </c>
+      <c r="E2228">
+        <v>0</v>
+      </c>
+      <c r="F2228">
+        <v>32.11</v>
+      </c>
+      <c r="G2228">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2229" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2229">
+        <v>5</v>
+      </c>
+      <c r="C2229">
+        <v>1</v>
+      </c>
+      <c r="D2229">
+        <v>18</v>
+      </c>
+      <c r="E2229">
+        <v>0</v>
+      </c>
+      <c r="F2229">
+        <v>30.95</v>
+      </c>
+      <c r="G2229">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2230" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2230">
+        <v>5</v>
+      </c>
+      <c r="C2230">
+        <v>1</v>
+      </c>
+      <c r="D2230">
+        <v>19</v>
+      </c>
+      <c r="E2230">
+        <v>0</v>
+      </c>
+      <c r="F2230">
+        <v>30.51</v>
+      </c>
+      <c r="G2230">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2231" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2231">
+        <v>5</v>
+      </c>
+      <c r="C2231">
+        <v>1</v>
+      </c>
+      <c r="D2231">
+        <v>20</v>
+      </c>
+      <c r="E2231">
+        <v>0</v>
+      </c>
+      <c r="F2231">
+        <v>30.26</v>
+      </c>
+      <c r="G2231">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2232" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2232">
+        <v>5</v>
+      </c>
+      <c r="C2232">
+        <v>1</v>
+      </c>
+      <c r="D2232">
+        <v>21</v>
+      </c>
+      <c r="E2232">
+        <v>0</v>
+      </c>
+      <c r="F2232">
+        <v>30</v>
+      </c>
+      <c r="G2232">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2233" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2233">
+        <v>5</v>
+      </c>
+      <c r="C2233">
+        <v>1</v>
+      </c>
+      <c r="D2233">
+        <v>22</v>
+      </c>
+      <c r="E2233">
+        <v>0</v>
+      </c>
+      <c r="F2233">
+        <v>29.85</v>
+      </c>
+      <c r="G2233">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2234" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2234">
+        <v>5</v>
+      </c>
+      <c r="C2234">
+        <v>1</v>
+      </c>
+      <c r="D2234">
+        <v>23</v>
+      </c>
+      <c r="E2234">
+        <v>0</v>
+      </c>
+      <c r="F2234">
+        <v>29.82</v>
+      </c>
+      <c r="G2234">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2235" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2235">
+        <v>5</v>
+      </c>
+      <c r="C2235">
+        <v>2</v>
+      </c>
+      <c r="D2235">
+        <v>0</v>
+      </c>
+      <c r="E2235">
+        <v>0</v>
+      </c>
+      <c r="F2235">
+        <v>29.3</v>
+      </c>
+      <c r="G2235">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2236" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2236">
+        <v>5</v>
+      </c>
+      <c r="C2236">
+        <v>2</v>
+      </c>
+      <c r="D2236">
+        <v>1</v>
+      </c>
+      <c r="E2236">
+        <v>0</v>
+      </c>
+      <c r="F2236">
+        <v>29.06</v>
+      </c>
+      <c r="G2236">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2237" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2237">
+        <v>5</v>
+      </c>
+      <c r="C2237">
+        <v>2</v>
+      </c>
+      <c r="D2237">
+        <v>2</v>
+      </c>
+      <c r="E2237">
+        <v>0</v>
+      </c>
+      <c r="F2237">
+        <v>28.9</v>
+      </c>
+      <c r="G2237">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2238" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2238">
+        <v>5</v>
+      </c>
+      <c r="C2238">
+        <v>2</v>
+      </c>
+      <c r="D2238">
+        <v>3</v>
+      </c>
+      <c r="E2238">
+        <v>0</v>
+      </c>
+      <c r="F2238">
+        <v>28.79</v>
+      </c>
+      <c r="G2238">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2239" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2239">
+        <v>5</v>
+      </c>
+      <c r="C2239">
+        <v>2</v>
+      </c>
+      <c r="D2239">
+        <v>4</v>
+      </c>
+      <c r="E2239">
+        <v>0</v>
+      </c>
+      <c r="F2239">
+        <v>28.5</v>
+      </c>
+      <c r="G2239">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2240" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2240">
+        <v>5</v>
+      </c>
+      <c r="C2240">
+        <v>2</v>
+      </c>
+      <c r="D2240">
+        <v>5</v>
+      </c>
+      <c r="E2240">
+        <v>0</v>
+      </c>
+      <c r="F2240">
+        <v>28.87</v>
+      </c>
+      <c r="G2240">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2241" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2241">
+        <v>5</v>
+      </c>
+      <c r="C2241">
+        <v>2</v>
+      </c>
+      <c r="D2241">
+        <v>6</v>
+      </c>
+      <c r="E2241">
+        <v>1</v>
+      </c>
+      <c r="F2241">
+        <v>29.7</v>
+      </c>
+      <c r="G2241">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2242" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2242">
+        <v>5</v>
+      </c>
+      <c r="C2242">
+        <v>2</v>
+      </c>
+      <c r="D2242">
+        <v>7</v>
+      </c>
+      <c r="E2242">
+        <v>3</v>
+      </c>
+      <c r="F2242">
+        <v>31.25</v>
+      </c>
+      <c r="G2242">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2243" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2243">
+        <v>5</v>
+      </c>
+      <c r="C2243">
+        <v>2</v>
+      </c>
+      <c r="D2243">
+        <v>8</v>
+      </c>
+      <c r="E2243">
+        <v>4</v>
+      </c>
+      <c r="F2243">
+        <v>32.54</v>
+      </c>
+      <c r="G2243">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2244" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2244">
+        <v>5</v>
+      </c>
+      <c r="C2244">
+        <v>2</v>
+      </c>
+      <c r="D2244">
+        <v>9</v>
+      </c>
+      <c r="E2244">
+        <v>6</v>
+      </c>
+      <c r="F2244">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G2244">
+        <v>57.999999999999993</v>
+      </c>
+    </row>
+    <row r="2245" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2245">
+        <v>5</v>
+      </c>
+      <c r="C2245">
+        <v>2</v>
+      </c>
+      <c r="D2245">
+        <v>10</v>
+      </c>
+      <c r="E2245">
+        <v>8</v>
+      </c>
+      <c r="F2245">
+        <v>35.64</v>
+      </c>
+      <c r="G2245">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2246" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2246">
+        <v>5</v>
+      </c>
+      <c r="C2246">
+        <v>2</v>
+      </c>
+      <c r="D2246">
+        <v>11</v>
+      </c>
+      <c r="E2246">
+        <v>8</v>
+      </c>
+      <c r="F2246">
+        <v>36.64</v>
+      </c>
+      <c r="G2246">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2247" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2247">
+        <v>5</v>
+      </c>
+      <c r="C2247">
+        <v>2</v>
+      </c>
+      <c r="D2247">
+        <v>12</v>
+      </c>
+      <c r="E2247">
+        <v>7</v>
+      </c>
+      <c r="F2247">
+        <v>36.36</v>
+      </c>
+      <c r="G2247">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2248" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2248">
+        <v>5</v>
+      </c>
+      <c r="C2248">
+        <v>2</v>
+      </c>
+      <c r="D2248">
+        <v>13</v>
+      </c>
+      <c r="E2248">
+        <v>6</v>
+      </c>
+      <c r="F2248">
+        <v>37.19</v>
+      </c>
+      <c r="G2248">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2249" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2249">
+        <v>5</v>
+      </c>
+      <c r="C2249">
+        <v>2</v>
+      </c>
+      <c r="D2249">
+        <v>14</v>
+      </c>
+      <c r="E2249">
+        <v>4</v>
+      </c>
+      <c r="F2249">
+        <v>36.18</v>
+      </c>
+      <c r="G2249">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2250" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2250">
+        <v>5</v>
+      </c>
+      <c r="C2250">
+        <v>2</v>
+      </c>
+      <c r="D2250">
+        <v>15</v>
+      </c>
+      <c r="E2250">
+        <v>2</v>
+      </c>
+      <c r="F2250">
+        <v>35.67</v>
+      </c>
+      <c r="G2250">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2251" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2251">
+        <v>5</v>
+      </c>
+      <c r="C2251">
+        <v>2</v>
+      </c>
+      <c r="D2251">
+        <v>16</v>
+      </c>
+      <c r="E2251">
+        <v>1</v>
+      </c>
+      <c r="F2251">
+        <v>34.31</v>
+      </c>
+      <c r="G2251">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2252" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2252">
+        <v>5</v>
+      </c>
+      <c r="C2252">
+        <v>2</v>
+      </c>
+      <c r="D2252">
+        <v>17</v>
+      </c>
+      <c r="E2252">
+        <v>0</v>
+      </c>
+      <c r="F2252">
+        <v>32.57</v>
+      </c>
+      <c r="G2252">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2253" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2253">
+        <v>5</v>
+      </c>
+      <c r="C2253">
+        <v>2</v>
+      </c>
+      <c r="D2253">
+        <v>18</v>
+      </c>
+      <c r="E2253">
+        <v>0</v>
+      </c>
+      <c r="F2253">
+        <v>31.42</v>
+      </c>
+      <c r="G2253">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2254" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2254">
+        <v>5</v>
+      </c>
+      <c r="C2254">
+        <v>2</v>
+      </c>
+      <c r="D2254">
+        <v>19</v>
+      </c>
+      <c r="E2254">
+        <v>0</v>
+      </c>
+      <c r="F2254">
+        <v>30.67</v>
+      </c>
+      <c r="G2254">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2255" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2255">
+        <v>5</v>
+      </c>
+      <c r="C2255">
+        <v>2</v>
+      </c>
+      <c r="D2255">
+        <v>20</v>
+      </c>
+      <c r="E2255">
+        <v>0</v>
+      </c>
+      <c r="F2255">
+        <v>30.33</v>
+      </c>
+      <c r="G2255">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2256" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2256">
+        <v>5</v>
+      </c>
+      <c r="C2256">
+        <v>2</v>
+      </c>
+      <c r="D2256">
+        <v>21</v>
+      </c>
+      <c r="E2256">
+        <v>0</v>
+      </c>
+      <c r="F2256">
+        <v>30.1</v>
+      </c>
+      <c r="G2256">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2257" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2257">
+        <v>5</v>
+      </c>
+      <c r="C2257">
+        <v>2</v>
+      </c>
+      <c r="D2257">
+        <v>22</v>
+      </c>
+      <c r="E2257">
+        <v>0</v>
+      </c>
+      <c r="F2257">
+        <v>29.75</v>
+      </c>
+      <c r="G2257">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2258" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2258">
+        <v>5</v>
+      </c>
+      <c r="C2258">
+        <v>2</v>
+      </c>
+      <c r="D2258">
+        <v>23</v>
+      </c>
+      <c r="E2258">
+        <v>0</v>
+      </c>
+      <c r="F2258">
+        <v>29.52</v>
+      </c>
+      <c r="G2258">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2259" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2259">
+        <v>5</v>
+      </c>
+      <c r="C2259">
+        <v>3</v>
+      </c>
+      <c r="D2259">
+        <v>0</v>
+      </c>
+      <c r="E2259">
+        <v>0</v>
+      </c>
+      <c r="F2259">
+        <v>29.58</v>
+      </c>
+      <c r="G2259">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2260" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2260">
+        <v>5</v>
+      </c>
+      <c r="C2260">
+        <v>3</v>
+      </c>
+      <c r="D2260">
+        <v>1</v>
+      </c>
+      <c r="E2260">
+        <v>0</v>
+      </c>
+      <c r="F2260">
+        <v>29.44</v>
+      </c>
+      <c r="G2260">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2261" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2261">
+        <v>5</v>
+      </c>
+      <c r="C2261">
+        <v>3</v>
+      </c>
+      <c r="D2261">
+        <v>2</v>
+      </c>
+      <c r="E2261">
+        <v>0</v>
+      </c>
+      <c r="F2261">
+        <v>28.97</v>
+      </c>
+      <c r="G2261">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2262" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2262">
+        <v>5</v>
+      </c>
+      <c r="C2262">
+        <v>3</v>
+      </c>
+      <c r="D2262">
+        <v>3</v>
+      </c>
+      <c r="E2262">
+        <v>0</v>
+      </c>
+      <c r="F2262">
+        <v>28.8</v>
+      </c>
+      <c r="G2262">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2263" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2263">
+        <v>5</v>
+      </c>
+      <c r="C2263">
+        <v>3</v>
+      </c>
+      <c r="D2263">
+        <v>4</v>
+      </c>
+      <c r="E2263">
+        <v>0</v>
+      </c>
+      <c r="F2263">
+        <v>28.94</v>
+      </c>
+      <c r="G2263">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2264" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2264">
+        <v>5</v>
+      </c>
+      <c r="C2264">
+        <v>3</v>
+      </c>
+      <c r="D2264">
+        <v>5</v>
+      </c>
+      <c r="E2264">
+        <v>0</v>
+      </c>
+      <c r="F2264">
+        <v>29.17</v>
+      </c>
+      <c r="G2264">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2265" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2265">
+        <v>5</v>
+      </c>
+      <c r="C2265">
+        <v>3</v>
+      </c>
+      <c r="D2265">
+        <v>6</v>
+      </c>
+      <c r="E2265">
+        <v>1</v>
+      </c>
+      <c r="F2265">
+        <v>30.03</v>
+      </c>
+      <c r="G2265">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2266" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2266">
+        <v>5</v>
+      </c>
+      <c r="C2266">
+        <v>3</v>
+      </c>
+      <c r="D2266">
+        <v>7</v>
+      </c>
+      <c r="E2266">
+        <v>3</v>
+      </c>
+      <c r="F2266">
+        <v>30.92</v>
+      </c>
+      <c r="G2266">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2267" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2267">
+        <v>5</v>
+      </c>
+      <c r="C2267">
+        <v>3</v>
+      </c>
+      <c r="D2267">
+        <v>8</v>
+      </c>
+      <c r="E2267">
+        <v>5</v>
+      </c>
+      <c r="F2267">
+        <v>32.43</v>
+      </c>
+      <c r="G2267">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2268" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2268">
+        <v>5</v>
+      </c>
+      <c r="C2268">
+        <v>3</v>
+      </c>
+      <c r="D2268">
+        <v>9</v>
+      </c>
+      <c r="E2268">
+        <v>6</v>
+      </c>
+      <c r="F2268">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G2268">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2269" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2269">
+        <v>5</v>
+      </c>
+      <c r="C2269">
+        <v>3</v>
+      </c>
+      <c r="D2269">
+        <v>10</v>
+      </c>
+      <c r="E2269">
+        <v>7</v>
+      </c>
+      <c r="F2269">
+        <v>35.03</v>
+      </c>
+      <c r="G2269">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2270" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2270">
+        <v>5</v>
+      </c>
+      <c r="C2270">
+        <v>3</v>
+      </c>
+      <c r="D2270">
+        <v>11</v>
+      </c>
+      <c r="E2270">
+        <v>7</v>
+      </c>
+      <c r="F2270">
+        <v>35.78</v>
+      </c>
+      <c r="G2270">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2271" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2271">
+        <v>5</v>
+      </c>
+      <c r="C2271">
+        <v>3</v>
+      </c>
+      <c r="D2271">
+        <v>12</v>
+      </c>
+      <c r="E2271">
+        <v>7</v>
+      </c>
+      <c r="F2271">
+        <v>36.42</v>
+      </c>
+      <c r="G2271">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2272" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2272">
+        <v>5</v>
+      </c>
+      <c r="C2272">
+        <v>3</v>
+      </c>
+      <c r="D2272">
+        <v>13</v>
+      </c>
+      <c r="E2272">
+        <v>6</v>
+      </c>
+      <c r="F2272">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="G2272">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2273" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2273">
+        <v>5</v>
+      </c>
+      <c r="C2273">
+        <v>3</v>
+      </c>
+      <c r="D2273">
+        <v>14</v>
+      </c>
+      <c r="E2273">
+        <v>4</v>
+      </c>
+      <c r="F2273">
+        <v>36.6</v>
+      </c>
+      <c r="G2273">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2274" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2274">
+        <v>5</v>
+      </c>
+      <c r="C2274">
+        <v>3</v>
+      </c>
+      <c r="D2274">
+        <v>15</v>
+      </c>
+      <c r="E2274">
+        <v>2</v>
+      </c>
+      <c r="F2274">
+        <v>35.72</v>
+      </c>
+      <c r="G2274">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2275" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2275">
+        <v>5</v>
+      </c>
+      <c r="C2275">
+        <v>3</v>
+      </c>
+      <c r="D2275">
+        <v>16</v>
+      </c>
+      <c r="E2275">
+        <v>1</v>
+      </c>
+      <c r="F2275">
+        <v>33.79</v>
+      </c>
+      <c r="G2275">
+        <v>57.999999999999993</v>
+      </c>
+    </row>
+    <row r="2276" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2276">
+        <v>5</v>
+      </c>
+      <c r="C2276">
+        <v>3</v>
+      </c>
+      <c r="D2276">
+        <v>17</v>
+      </c>
+      <c r="E2276">
+        <v>0</v>
+      </c>
+      <c r="F2276">
+        <v>31.95</v>
+      </c>
+      <c r="G2276">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2277" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2277">
+        <v>5</v>
+      </c>
+      <c r="C2277">
+        <v>3</v>
+      </c>
+      <c r="D2277">
+        <v>18</v>
+      </c>
+      <c r="E2277">
+        <v>0</v>
+      </c>
+      <c r="F2277">
+        <v>30.8</v>
+      </c>
+      <c r="G2277">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2278" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2278">
+        <v>5</v>
+      </c>
+      <c r="C2278">
+        <v>3</v>
+      </c>
+      <c r="D2278">
+        <v>19</v>
+      </c>
+      <c r="E2278">
+        <v>0</v>
+      </c>
+      <c r="F2278">
+        <v>30.24</v>
+      </c>
+      <c r="G2278">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2279" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2279">
+        <v>5</v>
+      </c>
+      <c r="C2279">
+        <v>3</v>
+      </c>
+      <c r="D2279">
+        <v>20</v>
+      </c>
+      <c r="E2279">
+        <v>0</v>
+      </c>
+      <c r="F2279">
+        <v>30.15</v>
+      </c>
+      <c r="G2279">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2280" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2280">
+        <v>5</v>
+      </c>
+      <c r="C2280">
+        <v>3</v>
+      </c>
+      <c r="D2280">
+        <v>21</v>
+      </c>
+      <c r="E2280">
+        <v>0</v>
+      </c>
+      <c r="F2280">
+        <v>29.85</v>
+      </c>
+      <c r="G2280">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2281" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2281">
+        <v>5</v>
+      </c>
+      <c r="C2281">
+        <v>3</v>
+      </c>
+      <c r="D2281">
+        <v>22</v>
+      </c>
+      <c r="E2281">
+        <v>0</v>
+      </c>
+      <c r="F2281">
+        <v>29.73</v>
+      </c>
+      <c r="G2281">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2282" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2282">
+        <v>5</v>
+      </c>
+      <c r="C2282">
+        <v>3</v>
+      </c>
+      <c r="D2282">
+        <v>23</v>
+      </c>
+      <c r="E2282">
+        <v>0</v>
+      </c>
+      <c r="F2282">
+        <v>29.64</v>
+      </c>
+      <c r="G2282">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2283" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2283">
+        <v>5</v>
+      </c>
+      <c r="C2283">
+        <v>4</v>
+      </c>
+      <c r="D2283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2284" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2284">
+        <v>5</v>
+      </c>
+      <c r="C2284">
+        <v>4</v>
+      </c>
+      <c r="D2284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2285" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2285">
+        <v>5</v>
+      </c>
+      <c r="C2285">
+        <v>4</v>
+      </c>
+      <c r="D2285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2286" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2286">
+        <v>5</v>
+      </c>
+      <c r="C2286">
+        <v>4</v>
+      </c>
+      <c r="D2286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2287" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2287">
+        <v>5</v>
+      </c>
+      <c r="C2287">
+        <v>4</v>
+      </c>
+      <c r="D2287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2288" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2288">
+        <v>5</v>
+      </c>
+      <c r="C2288">
+        <v>4</v>
+      </c>
+      <c r="D2288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2289" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2289">
+        <v>5</v>
+      </c>
+      <c r="C2289">
+        <v>4</v>
+      </c>
+      <c r="D2289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2290" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2290">
+        <v>5</v>
+      </c>
+      <c r="C2290">
+        <v>4</v>
+      </c>
+      <c r="D2290">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2291" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2291">
+        <v>5</v>
+      </c>
+      <c r="C2291">
+        <v>4</v>
+      </c>
+      <c r="D2291">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2292" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2292">
+        <v>5</v>
+      </c>
+      <c r="C2292">
+        <v>4</v>
+      </c>
+      <c r="D2292">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2293" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2293">
+        <v>5</v>
+      </c>
+      <c r="C2293">
+        <v>4</v>
+      </c>
+      <c r="D2293">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2294" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2294">
+        <v>5</v>
+      </c>
+      <c r="C2294">
+        <v>4</v>
+      </c>
+      <c r="D2294">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2295" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2295">
+        <v>5</v>
+      </c>
+      <c r="C2295">
+        <v>4</v>
+      </c>
+      <c r="D2295">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2296" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2296">
+        <v>5</v>
+      </c>
+      <c r="C2296">
+        <v>4</v>
+      </c>
+      <c r="D2296">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2297" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2297">
+        <v>5</v>
+      </c>
+      <c r="C2297">
+        <v>4</v>
+      </c>
+      <c r="D2297">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2298" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2298">
+        <v>5</v>
+      </c>
+      <c r="C2298">
+        <v>4</v>
+      </c>
+      <c r="D2298">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2299" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2299">
+        <v>5</v>
+      </c>
+      <c r="C2299">
+        <v>4</v>
+      </c>
+      <c r="D2299">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2300" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2300">
+        <v>5</v>
+      </c>
+      <c r="C2300">
+        <v>4</v>
+      </c>
+      <c r="D2300">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2301" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2301">
+        <v>5</v>
+      </c>
+      <c r="C2301">
+        <v>4</v>
+      </c>
+      <c r="D2301">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2302" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2302">
+        <v>5</v>
+      </c>
+      <c r="C2302">
+        <v>4</v>
+      </c>
+      <c r="D2302">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2303" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2303">
+        <v>5</v>
+      </c>
+      <c r="C2303">
+        <v>4</v>
+      </c>
+      <c r="D2303">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2304" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2304">
+        <v>5</v>
+      </c>
+      <c r="C2304">
+        <v>4</v>
+      </c>
+      <c r="D2304">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2305" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2305">
+        <v>5</v>
+      </c>
+      <c r="C2305">
+        <v>4</v>
+      </c>
+      <c r="D2305">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2306" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2306">
+        <v>5</v>
+      </c>
+      <c r="C2306">
+        <v>4</v>
+      </c>
+      <c r="D2306">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2307" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2307">
+        <v>5</v>
+      </c>
+      <c r="C2307">
+        <v>5</v>
+      </c>
+      <c r="D2307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2308" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2308">
+        <v>5</v>
+      </c>
+      <c r="C2308">
+        <v>5</v>
+      </c>
+      <c r="D2308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2309" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2309">
+        <v>5</v>
+      </c>
+      <c r="C2309">
+        <v>5</v>
+      </c>
+      <c r="D2309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2310" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2310">
+        <v>5</v>
+      </c>
+      <c r="C2310">
+        <v>5</v>
+      </c>
+      <c r="D2310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2311" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2311">
+        <v>5</v>
+      </c>
+      <c r="C2311">
+        <v>5</v>
+      </c>
+      <c r="D2311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2312" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2312">
+        <v>5</v>
+      </c>
+      <c r="C2312">
+        <v>5</v>
+      </c>
+      <c r="D2312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2313" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2313">
+        <v>5</v>
+      </c>
+      <c r="C2313">
+        <v>5</v>
+      </c>
+      <c r="D2313">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2314" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2314">
+        <v>5</v>
+      </c>
+      <c r="C2314">
+        <v>5</v>
+      </c>
+      <c r="D2314">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2315" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2315">
+        <v>5</v>
+      </c>
+      <c r="C2315">
+        <v>5</v>
+      </c>
+      <c r="D2315">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2316" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2316">
+        <v>5</v>
+      </c>
+      <c r="C2316">
+        <v>5</v>
+      </c>
+      <c r="D2316">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2317" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2317">
+        <v>5</v>
+      </c>
+      <c r="C2317">
+        <v>5</v>
+      </c>
+      <c r="D2317">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2318" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2318">
+        <v>5</v>
+      </c>
+      <c r="C2318">
+        <v>5</v>
+      </c>
+      <c r="D2318">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2319" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2319">
+        <v>5</v>
+      </c>
+      <c r="C2319">
+        <v>5</v>
+      </c>
+      <c r="D2319">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2320" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2320">
+        <v>5</v>
+      </c>
+      <c r="C2320">
+        <v>5</v>
+      </c>
+      <c r="D2320">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2321" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2321">
+        <v>5</v>
+      </c>
+      <c r="C2321">
+        <v>5</v>
+      </c>
+      <c r="D2321">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2322" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2322">
+        <v>5</v>
+      </c>
+      <c r="C2322">
+        <v>5</v>
+      </c>
+      <c r="D2322">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2323" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2323">
+        <v>5</v>
+      </c>
+      <c r="C2323">
+        <v>5</v>
+      </c>
+      <c r="D2323">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2324" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2324">
+        <v>5</v>
+      </c>
+      <c r="C2324">
+        <v>5</v>
+      </c>
+      <c r="D2324">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2325" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2325">
+        <v>5</v>
+      </c>
+      <c r="C2325">
+        <v>5</v>
+      </c>
+      <c r="D2325">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2326" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2326">
+        <v>5</v>
+      </c>
+      <c r="C2326">
+        <v>5</v>
+      </c>
+      <c r="D2326">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2327" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2327">
+        <v>5</v>
+      </c>
+      <c r="C2327">
+        <v>5</v>
+      </c>
+      <c r="D2327">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2328" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2328">
+        <v>5</v>
+      </c>
+      <c r="C2328">
+        <v>5</v>
+      </c>
+      <c r="D2328">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2329" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2329">
+        <v>5</v>
+      </c>
+      <c r="C2329">
+        <v>5</v>
+      </c>
+      <c r="D2329">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2330" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2330">
+        <v>5</v>
+      </c>
+      <c r="C2330">
+        <v>5</v>
+      </c>
+      <c r="D2330">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
